--- a/$STX.xlsx
+++ b/$STX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{180F3790-D598-4133-BBB9-F9EA193B2ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE66774-28FB-45C7-B0C9-E56F19412D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47E727E2-A9A8-4982-8579-220A7F2C2C9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47E727E2-A9A8-4982-8579-220A7F2C2C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
   <si>
     <t>$STX</t>
   </si>
@@ -335,13 +335,94 @@
   </si>
   <si>
     <t>Q122</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>The Netherlands</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Revenue by Country</t>
+  </si>
+  <si>
+    <t>Revenue by Channel</t>
+  </si>
+  <si>
+    <t>OEMs</t>
+  </si>
+  <si>
+    <t>Distributers</t>
+  </si>
+  <si>
+    <t>Retailers</t>
+  </si>
+  <si>
+    <t>OEM Y/Y</t>
+  </si>
+  <si>
+    <t>Distributer Y/Y</t>
+  </si>
+  <si>
+    <t>Retailers Y/Y</t>
+  </si>
+  <si>
+    <t>Singapore Y/Y</t>
+  </si>
+  <si>
+    <t>United States Y/Y</t>
+  </si>
+  <si>
+    <t>The Netherlands Y/Y</t>
+  </si>
+  <si>
+    <t>Other Y/Y</t>
+  </si>
+  <si>
+    <t>Kerrisdale Capital release bull report</t>
+  </si>
+  <si>
+    <t>Cashflow</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>FCF TTM</t>
+  </si>
+  <si>
+    <t>FCF per Share</t>
+  </si>
+  <si>
+    <t>Price / FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +483,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -523,23 +611,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -552,37 +630,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,7 +662,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -611,6 +670,46 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -627,6 +726,170 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>497914</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image Center | Seagate US">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A62E3B00-AAD3-424B-F268-1304DE3DD1C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2905126" y="19050"/>
+          <a:ext cx="640788" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D2789A-FC85-F44A-377B-F83532B599A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15563850" y="19050"/>
+          <a:ext cx="0" cy="15363825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96895D12-37A6-4B61-9584-69DA30CC957C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="0"/>
+          <a:ext cx="0" cy="15363825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -928,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129FE0EA-E973-4B86-9874-849339364235}">
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -948,298 +1211,307 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="G5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="1">
         <v>107.29</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
+      <c r="D6" s="16"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="14">
         <v>212.21224100000001</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="G7" s="47">
+        <v>45778</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="14">
         <f>C6*C7</f>
         <v>22768.251336890004</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="D8" s="16"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="21">
-        <f>+'Financial Model'!O62</f>
+      <c r="C9" s="14">
+        <f>+'Financial Model'!O78</f>
         <v>814</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="21">
-        <f>+'Financial Model'!O63</f>
+      <c r="C10" s="14">
+        <f>+'Financial Model'!O79</f>
         <v>5219</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="14">
         <f>C9-C10</f>
         <v>-4405</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="15">
         <f>C8-C11</f>
         <v>27173.251336890004</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="D12" s="17"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="18">
         <v>37377</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1256,25 +1528,21 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F2B54E-CC40-4258-9CE5-B798A8BE7230}">
-  <dimension ref="B1:AE64"/>
+  <dimension ref="B1:AF91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
+      <selection pane="bottomRight" activeCell="K40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1284,612 +1552,1087 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="33" t="s">
+    <row r="1" spans="2:32" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="P1" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="U1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="V1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="W1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="X1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="Y1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Z1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AA1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AB1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AC1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AD1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AE1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AF1" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="2:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="34"/>
-      <c r="O2" s="41">
+    <row r="2" spans="2:32" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20"/>
+      <c r="J2" s="26">
+        <v>45289</v>
+      </c>
+      <c r="K2" s="26">
+        <v>45380</v>
+      </c>
+      <c r="N2" s="26">
+        <v>45653</v>
+      </c>
+      <c r="O2" s="26">
         <v>45744</v>
       </c>
     </row>
-    <row r="3" spans="2:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34"/>
-      <c r="O3" s="36">
+    <row r="3" spans="2:32" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="20"/>
+      <c r="N3" s="22">
+        <v>45292</v>
+      </c>
+      <c r="O3" s="22">
         <v>45779</v>
       </c>
     </row>
-    <row r="4" spans="2:31" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
+    <row r="4" spans="2:32" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="44">
+        <f>+SUM(J5:J7)</f>
+        <v>1555</v>
+      </c>
+      <c r="K4" s="44">
+        <f>+SUM(K5:K7)</f>
+        <v>1655</v>
+      </c>
+      <c r="N4" s="44">
+        <f>+SUM(N5:N7)</f>
+        <v>2325</v>
+      </c>
+      <c r="O4" s="44">
+        <f>+SUM(O5:O7)</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="41">
+        <v>1140</v>
+      </c>
+      <c r="K5" s="41">
+        <v>1236</v>
+      </c>
+      <c r="N5" s="41">
+        <v>1841</v>
+      </c>
+      <c r="O5" s="41">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="41">
+        <v>218</v>
+      </c>
+      <c r="K6" s="41">
+        <v>252</v>
+      </c>
+      <c r="N6" s="41">
+        <v>278</v>
+      </c>
+      <c r="O6" s="41">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="41">
+        <v>197</v>
+      </c>
+      <c r="K7" s="41">
+        <v>167</v>
+      </c>
+      <c r="N7" s="41">
+        <v>206</v>
+      </c>
+      <c r="O7" s="41">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="44">
+        <f>+SUM(J9:J12)</f>
+        <v>1555</v>
+      </c>
+      <c r="K8" s="44">
+        <f>+SUM(K9:K12)</f>
+        <v>1655</v>
+      </c>
+      <c r="N8" s="44">
+        <f>+SUM(N9:N12)</f>
+        <v>2325</v>
+      </c>
+      <c r="O8" s="44">
+        <f>+SUM(O9:O12)</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="41">
+        <v>775</v>
+      </c>
+      <c r="K9" s="41">
+        <v>834</v>
+      </c>
+      <c r="N9" s="41">
+        <v>1034</v>
+      </c>
+      <c r="O9" s="41">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="41">
+        <v>544</v>
+      </c>
+      <c r="K10" s="41">
+        <v>618</v>
+      </c>
+      <c r="N10" s="41">
+        <v>1059</v>
+      </c>
+      <c r="O10" s="41">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="41">
+        <v>234</v>
+      </c>
+      <c r="K11" s="41">
+        <v>200</v>
+      </c>
+      <c r="N11" s="41">
+        <v>231</v>
+      </c>
+      <c r="O11" s="41">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="41">
+        <v>2</v>
+      </c>
+      <c r="K12" s="41">
+        <v>3</v>
+      </c>
+      <c r="N12" s="41">
+        <v>1</v>
+      </c>
+      <c r="O12" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="39">
+      <c r="J13" s="25">
+        <v>1555</v>
+      </c>
+      <c r="K13" s="25">
         <v>1655</v>
       </c>
-      <c r="O4" s="39">
+      <c r="N13" s="25">
+        <v>2325</v>
+      </c>
+      <c r="O13" s="25">
         <v>2160</v>
       </c>
-    </row>
-    <row r="5" spans="2:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="40" t="s">
+      <c r="AA13" s="25">
+        <v>9006</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>10160</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="40">
+      <c r="J14" s="14">
+        <v>1193</v>
+      </c>
+      <c r="K14" s="14">
         <v>1230</v>
       </c>
-      <c r="O5" s="40">
+      <c r="N14" s="14">
+        <v>1513</v>
+      </c>
+      <c r="O14" s="14">
         <v>1400</v>
       </c>
     </row>
-    <row r="6" spans="2:31" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="39" t="s">
+    <row r="15" spans="2:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="39">
-        <f>K4-K5</f>
+      <c r="J15" s="25">
+        <f>J13-J14</f>
+        <v>362</v>
+      </c>
+      <c r="K15" s="25">
+        <f>K13-K14</f>
         <v>425</v>
       </c>
-      <c r="O6" s="39">
-        <f>O4-O5</f>
+      <c r="N15" s="25">
+        <f>N13-N14</f>
+        <v>812</v>
+      </c>
+      <c r="O15" s="25">
+        <f>O13-O14</f>
         <v>760</v>
       </c>
     </row>
-    <row r="7" spans="2:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+    <row r="16" spans="2:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="40">
+      <c r="J16" s="14">
+        <v>161</v>
+      </c>
+      <c r="K16" s="14">
         <v>164</v>
       </c>
-      <c r="O7" s="40">
+      <c r="N16" s="14">
+        <v>184</v>
+      </c>
+      <c r="O16" s="14">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="2:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="40" t="s">
+    <row r="17" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="40">
+      <c r="J17" s="14">
+        <v>108</v>
+      </c>
+      <c r="K17" s="14">
         <v>116</v>
       </c>
-      <c r="O8" s="40">
+      <c r="N17" s="14">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="2:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
+      <c r="O17" s="14">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="40">
+      <c r="J18" s="14">
+        <v>-31</v>
+      </c>
+      <c r="K18" s="14">
         <v>2</v>
       </c>
-      <c r="O9" s="40">
+      <c r="N18" s="14">
+        <v>1</v>
+      </c>
+      <c r="O18" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:31" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="39" t="s">
+    <row r="19" spans="2:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="39">
-        <f>K6-K7-K8-K9</f>
+      <c r="J19" s="25">
+        <f>J15-J16-J17-J18</f>
+        <v>124</v>
+      </c>
+      <c r="K19" s="25">
+        <f>K15-K16-K17-K18</f>
         <v>143</v>
       </c>
-      <c r="O10" s="39">
-        <f>O6-O7-O8-O9</f>
+      <c r="N19" s="25">
+        <f>N15-N16-N17-N18</f>
+        <v>488</v>
+      </c>
+      <c r="O19" s="25">
+        <f>O15-O16-O17-O18</f>
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="2:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="40" t="s">
+    <row r="20" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="40">
+      <c r="J20" s="14">
         <v>3</v>
       </c>
-      <c r="O11" s="40">
+      <c r="K20" s="14">
+        <v>3</v>
+      </c>
+      <c r="N20" s="14">
+        <v>8</v>
+      </c>
+      <c r="O20" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40" t="s">
+    <row r="21" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="40">
+      <c r="J21" s="14">
+        <v>84</v>
+      </c>
+      <c r="K21" s="14">
         <v>82</v>
       </c>
-      <c r="O12" s="40">
+      <c r="N21" s="14">
+        <v>84</v>
+      </c>
+      <c r="O21" s="14">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="40" t="s">
+    <row r="22" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="40">
+      <c r="J22" s="14">
         <v>0</v>
       </c>
-      <c r="O13" s="40">
+      <c r="K22" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="s">
+      <c r="N22" s="14">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="40">
+      <c r="J23" s="14">
         <v>0</v>
       </c>
-      <c r="O14" s="40">
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="40" t="s">
+    <row r="24" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="40">
+      <c r="J24" s="14">
+        <v>-47</v>
+      </c>
+      <c r="K24" s="14">
         <v>-6</v>
       </c>
-      <c r="O15" s="40">
+      <c r="N24" s="14">
+        <v>-62</v>
+      </c>
+      <c r="O24" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:31" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="40" t="s">
+    <row r="25" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="40">
-        <f>K11-K12+K13-K14+K15</f>
+      <c r="J25" s="14">
+        <f>J20-J21+J22-J23+J24</f>
+        <v>-128</v>
+      </c>
+      <c r="K25" s="14">
+        <f>K20-K21+K22-K23+K24</f>
         <v>-85</v>
       </c>
-      <c r="O16" s="40">
-        <f>O11-O12+O13-O14+O15</f>
+      <c r="N25" s="14">
+        <f>N20-N21+N22-N23+N24</f>
+        <v>-138</v>
+      </c>
+      <c r="O25" s="14">
+        <f>O20-O21+O22-O23+O24</f>
         <v>-76</v>
       </c>
     </row>
-    <row r="17" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="40" t="s">
+    <row r="26" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="40">
-        <f>K10+K16</f>
+      <c r="J26" s="14">
+        <f>J19+J25</f>
+        <v>-4</v>
+      </c>
+      <c r="K26" s="14">
+        <f>K19+K25</f>
         <v>58</v>
       </c>
-      <c r="O17" s="40">
-        <f>O10+O16</f>
+      <c r="N26" s="14">
+        <f>N19+N25</f>
+        <v>350</v>
+      </c>
+      <c r="O26" s="14">
+        <f>O19+O25</f>
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="40" t="s">
+    <row r="27" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="40">
+      <c r="J27" s="14">
+        <v>15</v>
+      </c>
+      <c r="K27" s="14">
         <v>33</v>
       </c>
-      <c r="O18" s="40">
+      <c r="N27" s="14">
+        <v>14</v>
+      </c>
+      <c r="O27" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:15" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="39" t="s">
+    <row r="28" spans="2:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="39">
-        <f>K17-K18</f>
+      <c r="J28" s="25">
+        <f>J26-J27</f>
+        <v>-19</v>
+      </c>
+      <c r="K28" s="25">
+        <f>K26-K27</f>
         <v>25</v>
       </c>
-      <c r="O19" s="39">
-        <f>O17-O18</f>
+      <c r="N28" s="25">
+        <f>N26-N27</f>
+        <v>336</v>
+      </c>
+      <c r="O28" s="25">
+        <f>O26-O27</f>
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="37" t="s">
+    <row r="29" spans="2:28" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="37">
-        <f>K19/K21</f>
+      <c r="J29" s="23">
+        <f>J28/J30</f>
+        <v>-9.0909090909090912E-2</v>
+      </c>
+      <c r="K29" s="23">
+        <f>K28/K30</f>
         <v>0.11904761904761904</v>
       </c>
-      <c r="O20" s="37">
-        <f>O19/O21</f>
+      <c r="N29" s="23">
+        <f>N28/N30</f>
+        <v>1.5849056603773586</v>
+      </c>
+      <c r="O29" s="23">
+        <f>O28/O30</f>
         <v>1.6037735849056605</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="1">
+      <c r="J30" s="1">
+        <v>209</v>
+      </c>
+      <c r="K30" s="1">
         <v>210</v>
       </c>
-      <c r="O21" s="1">
+      <c r="N30" s="1">
         <v>212</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="43" t="s">
+      <c r="O30" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="43">
-        <f>O4/K4-1</f>
+      <c r="N32" s="28">
+        <f>N13/J13-1</f>
+        <v>0.49517684887459801</v>
+      </c>
+      <c r="O32" s="28">
+        <f>O13/K13-1</f>
         <v>0.30513595166163143</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+      <c r="AB32" s="28">
+        <f>AB13/AA13-1</f>
+        <v>0.12813679769042863</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" s="46">
+        <f>N5/J5-1</f>
+        <v>0.61491228070175441</v>
+      </c>
+      <c r="O33" s="46">
+        <f>O5/K5-1</f>
+        <v>0.38430420711974111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="N34" s="46">
+        <f>N6/J6-1</f>
+        <v>0.27522935779816504</v>
+      </c>
+      <c r="O34" s="46">
+        <f>O6/K6-1</f>
+        <v>4.7619047619047672E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="N35" s="46">
+        <f>N7/J7-1</f>
+        <v>4.5685279187817285E-2</v>
+      </c>
+      <c r="O35" s="46">
+        <f>O7/K7-1</f>
+        <v>0.10778443113772451</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="N36" s="46">
+        <f>N9/J9-1</f>
+        <v>0.33419354838709681</v>
+      </c>
+      <c r="O36" s="46">
+        <f>O9/K9-1</f>
+        <v>1.5587529976019088E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" s="46">
+        <f>N10/J10-1</f>
+        <v>0.94669117647058831</v>
+      </c>
+      <c r="O37" s="46">
+        <f>O10/K10-1</f>
+        <v>0.7637540453074434</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="N38" s="46">
+        <f>N11/J11-1</f>
+        <v>-1.2820512820512775E-2</v>
+      </c>
+      <c r="O38" s="46">
+        <f>O11/K11-1</f>
+        <v>0.1100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="N39" s="46">
+        <f>N12/J12-1</f>
+        <v>-0.5</v>
+      </c>
+      <c r="O39" s="46">
+        <f>O12/K12-1</f>
+        <v>-0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="38" t="s">
+      <c r="K40" s="24">
+        <f>K13/J13-1</f>
+        <v>6.4308681672025747E-2</v>
+      </c>
+      <c r="O40" s="24">
+        <f>O13/N13-1</f>
+        <v>-7.096774193548383E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="38">
-        <f>K6/K4</f>
+      <c r="K42" s="24">
+        <f>K15/K13</f>
         <v>0.25679758308157102</v>
       </c>
-      <c r="O26" s="38">
-        <f>O6/O4</f>
+      <c r="O42" s="24">
+        <f>O15/O13</f>
         <v>0.35185185185185186</v>
       </c>
     </row>
-    <row r="27" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="38" t="s">
+    <row r="43" spans="2:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="38">
-        <f>K10/K4</f>
+      <c r="K43" s="24">
+        <f>K19/K13</f>
         <v>8.6404833836858E-2</v>
       </c>
-      <c r="O27" s="38">
-        <f>O10/O4</f>
+      <c r="O43" s="24">
+        <f>O19/O13</f>
         <v>0.19953703703703704</v>
       </c>
     </row>
-    <row r="28" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="38" t="s">
+    <row r="44" spans="2:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K28" s="38">
-        <f>K19/K4</f>
+      <c r="K44" s="24">
+        <f>K28/K13</f>
         <v>1.5105740181268883E-2</v>
       </c>
-      <c r="O28" s="38">
-        <f>O19/O4</f>
+      <c r="O44" s="24">
+        <f>O28/O13</f>
         <v>0.15740740740740741</v>
       </c>
     </row>
-    <row r="29" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="38" t="s">
+    <row r="45" spans="2:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="38">
-        <f>K18/K17</f>
+      <c r="K45" s="24">
+        <f>K27/K26</f>
         <v>0.56896551724137934</v>
       </c>
-      <c r="O29" s="38">
-        <f>O18/O17</f>
+      <c r="O45" s="24">
+        <f>O27/O26</f>
         <v>4.2253521126760563E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="44" t="s">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:15" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="39" t="s">
+    <row r="50" spans="2:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="O34" s="39">
+      <c r="O50" s="25">
         <v>814</v>
       </c>
     </row>
-    <row r="35" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="40" t="s">
+    <row r="51" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="40">
+      <c r="O51" s="14">
         <v>622</v>
       </c>
     </row>
-    <row r="36" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="40" t="s">
+    <row r="52" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="40">
+      <c r="O52" s="14">
         <v>1472</v>
       </c>
     </row>
-    <row r="37" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="40" t="s">
+    <row r="53" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="O37" s="40">
+      <c r="O53" s="14">
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="40" t="s">
+    <row r="54" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="O38" s="40">
-        <f>SUM(O34:O37)</f>
+      <c r="O54" s="14">
+        <f>SUM(O50:O53)</f>
         <v>3282</v>
       </c>
     </row>
-    <row r="39" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="40" t="s">
+    <row r="55" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="O39" s="40">
+      <c r="O55" s="14">
         <v>1613</v>
       </c>
     </row>
-    <row r="40" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="40" t="s">
+    <row r="56" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="O40" s="40">
+      <c r="O56" s="14">
         <v>1219</v>
       </c>
     </row>
-    <row r="41" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="40" t="s">
+    <row r="57" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="40">
+      <c r="O57" s="14">
         <v>1026</v>
       </c>
     </row>
-    <row r="42" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="40" t="s">
+    <row r="58" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="O42" s="40">
+      <c r="O58" s="14">
         <v>424</v>
       </c>
     </row>
-    <row r="43" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="40" t="s">
+    <row r="59" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="O43" s="40">
-        <f>SUM(O38:O42)</f>
+      <c r="O59" s="14">
+        <f>SUM(O54:O58)</f>
         <v>7564</v>
       </c>
     </row>
-    <row r="44" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="40" t="s">
+    <row r="60" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O45" s="40">
+      <c r="O61" s="14">
         <v>1467</v>
       </c>
     </row>
-    <row r="46" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="40" t="s">
+    <row r="62" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="O46" s="40">
+      <c r="O62" s="14">
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="40" t="s">
+    <row r="63" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="O47" s="40">
+      <c r="O63" s="14">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="2:15" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="39" t="s">
+    <row r="64" spans="2:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O48" s="39">
+      <c r="O64" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="40" t="s">
+    <row r="65" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="O49" s="40">
+      <c r="O65" s="14">
         <v>642</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="40" t="s">
+    <row r="66" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="O50" s="40">
-        <f>SUM(O45:O49)</f>
+      <c r="O66" s="14">
+        <f>SUM(O61:O65)</f>
         <v>2412</v>
       </c>
     </row>
-    <row r="51" spans="2:15" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="39" t="s">
+    <row r="67" spans="2:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="O51" s="39">
+      <c r="O67" s="25">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="40" t="s">
+    <row r="68" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="O52" s="40">
+      <c r="O68" s="14">
         <v>762</v>
       </c>
     </row>
-    <row r="53" spans="2:15" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="39" t="s">
+    <row r="69" spans="2:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="O53" s="39">
+      <c r="O69" s="25">
         <v>5146</v>
       </c>
     </row>
-    <row r="54" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="40" t="s">
+    <row r="70" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="O54" s="40">
-        <f>SUM(O50:O53)</f>
+      <c r="O70" s="14">
+        <f>SUM(O66:O69)</f>
         <v>8393</v>
       </c>
     </row>
-    <row r="55" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="40" t="s">
+    <row r="71" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O56" s="40">
+      <c r="O72" s="14">
         <v>-829</v>
       </c>
     </row>
-    <row r="57" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="40" t="s">
+    <row r="73" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="O57" s="40">
-        <f>O56+O54</f>
+      <c r="O73" s="14">
+        <f>O72+O70</f>
         <v>7564</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O59" s="40">
-        <f>O43-O54</f>
+      <c r="O75" s="14">
+        <f>O59-O70</f>
         <v>-829</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O60" s="1">
-        <f>O59/O21</f>
+      <c r="O76" s="1">
+        <f>O75/O30</f>
         <v>-3.9103773584905661</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O62" s="40">
-        <f>O34</f>
+      <c r="O78" s="14">
+        <f>O50</f>
         <v>814</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O63" s="40">
-        <f>O48+O51+O53</f>
+      <c r="O79" s="14">
+        <f>O64+O67+O69</f>
         <v>5219</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O64" s="40">
-        <f>O62-O63</f>
+      <c r="O80" s="14">
+        <f>O78-O79</f>
         <v>-4405</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K85" s="1">
+        <v>484</v>
+      </c>
+      <c r="O85" s="1">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K86" s="1">
+        <v>200</v>
+      </c>
+      <c r="O86" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K87" s="1">
+        <f>+K85-K86</f>
+        <v>284</v>
+      </c>
+      <c r="O87" s="1">
+        <f>+O85-O86</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O1" r:id="rId1" location="i6f501b0b8fd7454798c65eb9140df698_22" xr:uid="{143F5CA7-CE9C-4C9D-9977-316514D216B5}"/>
+    <hyperlink ref="N1" r:id="rId2" xr:uid="{48A837BF-C9B1-4D77-9836-7B9F12505BE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="N8:O8 K8" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/$STX.xlsx
+++ b/$STX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE66774-28FB-45C7-B0C9-E56F19412D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5346D30F-958C-44D4-8A90-039262E7713E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47E727E2-A9A8-4982-8579-220A7F2C2C9D}"/>
   </bookViews>
@@ -1539,10 +1539,10 @@
   <dimension ref="B1:AF91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K40" sqref="A40:XFD40"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2287,10 +2287,18 @@
       <c r="B42" s="24" t="s">
         <v>47</v>
       </c>
+      <c r="J42" s="24">
+        <f>J15/J13</f>
+        <v>0.23279742765273312</v>
+      </c>
       <c r="K42" s="24">
         <f>K15/K13</f>
         <v>0.25679758308157102</v>
       </c>
+      <c r="N42" s="24">
+        <f>N15/N13</f>
+        <v>0.34924731182795699</v>
+      </c>
       <c r="O42" s="24">
         <f>O15/O13</f>
         <v>0.35185185185185186</v>
@@ -2300,10 +2308,18 @@
       <c r="B43" s="24" t="s">
         <v>48</v>
       </c>
+      <c r="J43" s="24">
+        <f>J19/J13</f>
+        <v>7.9742765273311894E-2</v>
+      </c>
       <c r="K43" s="24">
         <f>K19/K13</f>
         <v>8.6404833836858E-2</v>
       </c>
+      <c r="N43" s="24">
+        <f>N19/N13</f>
+        <v>0.20989247311827958</v>
+      </c>
       <c r="O43" s="24">
         <f>O19/O13</f>
         <v>0.19953703703703704</v>
@@ -2313,10 +2329,18 @@
       <c r="B44" s="24" t="s">
         <v>49</v>
       </c>
+      <c r="J44" s="24">
+        <f>J28/J13</f>
+        <v>-1.2218649517684888E-2</v>
+      </c>
       <c r="K44" s="24">
         <f>K28/K13</f>
         <v>1.5105740181268883E-2</v>
       </c>
+      <c r="N44" s="24">
+        <f>N28/N13</f>
+        <v>0.14451612903225808</v>
+      </c>
       <c r="O44" s="24">
         <f>O28/O13</f>
         <v>0.15740740740740741</v>
@@ -2326,9 +2350,17 @@
       <c r="B45" s="24" t="s">
         <v>50</v>
       </c>
+      <c r="J45" s="24">
+        <f>J27/J26</f>
+        <v>-3.75</v>
+      </c>
       <c r="K45" s="24">
         <f>K27/K26</f>
         <v>0.56896551724137934</v>
+      </c>
+      <c r="N45" s="24">
+        <f>N27/N26</f>
+        <v>0.04</v>
       </c>
       <c r="O45" s="24">
         <f>O27/O26</f>

--- a/$STX.xlsx
+++ b/$STX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5346D30F-958C-44D4-8A90-039262E7713E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6131B61-0E46-4853-856D-59CDD8F03349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47E727E2-A9A8-4982-8579-220A7F2C2C9D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
   <si>
     <t>$STX</t>
   </si>
@@ -326,15 +326,6 @@
   </si>
   <si>
     <t>Q422</t>
-  </si>
-  <si>
-    <t>Q322</t>
-  </si>
-  <si>
-    <t>Q222</t>
-  </si>
-  <si>
-    <t>Q122</t>
   </si>
   <si>
     <t>Singapore</t>
@@ -1254,7 +1245,7 @@
         <v>45778</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1539,10 +1530,10 @@
   <dimension ref="B1:AF91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42:J45"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,52 +1545,46 @@
   <sheetData>
     <row r="1" spans="2:32" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T1" s="19" t="s">
         <v>79</v>
@@ -1667,7 +1652,7 @@
     </row>
     <row r="4" spans="2:32" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J4" s="44">
         <f>+SUM(J5:J7)</f>
@@ -1688,7 +1673,7 @@
     </row>
     <row r="5" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J5" s="41">
         <v>1140</v>
@@ -1705,7 +1690,7 @@
     </row>
     <row r="6" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J6" s="41">
         <v>218</v>
@@ -1722,7 +1707,7 @@
     </row>
     <row r="7" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J7" s="41">
         <v>197</v>
@@ -1739,7 +1724,7 @@
     </row>
     <row r="8" spans="2:32" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J8" s="44">
         <f>+SUM(J9:J12)</f>
@@ -1760,7 +1745,7 @@
     </row>
     <row r="9" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J9" s="41">
         <v>775</v>
@@ -1777,7 +1762,7 @@
     </row>
     <row r="10" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J10" s="41">
         <v>544</v>
@@ -1794,7 +1779,7 @@
     </row>
     <row r="11" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J11" s="41">
         <v>234</v>
@@ -1811,7 +1796,7 @@
     </row>
     <row r="12" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J12" s="41">
         <v>2</v>
@@ -1842,6 +1827,18 @@
       <c r="O13" s="25">
         <v>2160</v>
       </c>
+      <c r="P13" s="25">
+        <f>O13*(1+P32)</f>
+        <v>2700</v>
+      </c>
+      <c r="Q13" s="25">
+        <f>P13*(1+Q32)</f>
+        <v>3375</v>
+      </c>
+      <c r="R13" s="25">
+        <f>Q13*(1+R32)</f>
+        <v>4218.75</v>
+      </c>
       <c r="AA13" s="25">
         <v>9006</v>
       </c>
@@ -2174,6 +2171,15 @@
         <f>O13/K13-1</f>
         <v>0.30513595166163143</v>
       </c>
+      <c r="P32" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="Q32" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="R32" s="28">
+        <v>0.25</v>
+      </c>
       <c r="AB32" s="28">
         <f>AB13/AA13-1</f>
         <v>0.12813679769042863</v>
@@ -2181,7 +2187,7 @@
     </row>
     <row r="33" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N33" s="46">
         <f>N5/J5-1</f>
@@ -2194,7 +2200,7 @@
     </row>
     <row r="34" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N34" s="46">
         <f>N6/J6-1</f>
@@ -2207,7 +2213,7 @@
     </row>
     <row r="35" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N35" s="46">
         <f>N7/J7-1</f>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="36" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N36" s="46">
         <f>N9/J9-1</f>
@@ -2233,7 +2239,7 @@
     </row>
     <row r="37" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N37" s="46">
         <f>N10/J10-1</f>
@@ -2246,7 +2252,7 @@
     </row>
     <row r="38" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N38" s="46">
         <f>N11/J11-1</f>
@@ -2259,7 +2265,7 @@
     </row>
     <row r="39" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N39" s="46">
         <f>N12/J12-1</f>
@@ -2602,12 +2608,12 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K85" s="1">
         <v>484</v>
@@ -2618,7 +2624,7 @@
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K86" s="1">
         <v>200</v>
@@ -2629,7 +2635,7 @@
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K87" s="1">
         <f>+K85-K86</f>
@@ -2642,28 +2648,28 @@
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O1" r:id="rId1" location="i6f501b0b8fd7454798c65eb9140df698_22" xr:uid="{143F5CA7-CE9C-4C9D-9977-316514D216B5}"/>
-    <hyperlink ref="N1" r:id="rId2" xr:uid="{48A837BF-C9B1-4D77-9836-7B9F12505BE7}"/>
+    <hyperlink ref="O1" r:id="rId1" location="i6f501b0b8fd7454798c65eb9140df698_22" display="Q125" xr:uid="{143F5CA7-CE9C-4C9D-9977-316514D216B5}"/>
+    <hyperlink ref="N1" r:id="rId2" display="Q424" xr:uid="{48A837BF-C9B1-4D77-9836-7B9F12505BE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="N8:O8 K8" formulaRange="1"/>
+    <ignoredError sqref="N8:O8 J8:K8" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/$STX.xlsx
+++ b/$STX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6131B61-0E46-4853-856D-59CDD8F03349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F49B489-8299-4D63-B1AB-9A9218C2B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47E727E2-A9A8-4982-8579-220A7F2C2C9D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
   <si>
     <t>$STX</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>Price / FCF</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
   </si>
 </sst>
 </file>
@@ -1529,11 +1535,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F2B54E-CC40-4258-9CE5-B798A8BE7230}">
   <dimension ref="B1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1586,6 +1592,12 @@
       <c r="P1" s="19" t="s">
         <v>118</v>
       </c>
+      <c r="Q1" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="T1" s="19" t="s">
         <v>79</v>
       </c>
@@ -1628,12 +1640,18 @@
     </row>
     <row r="2" spans="2:32" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="20"/>
+      <c r="I2" s="26">
+        <v>45198</v>
+      </c>
       <c r="J2" s="26">
         <v>45289</v>
       </c>
       <c r="K2" s="26">
         <v>45380</v>
       </c>
+      <c r="M2" s="26">
+        <v>45562</v>
+      </c>
       <c r="N2" s="26">
         <v>45653</v>
       </c>
@@ -1643,6 +1661,9 @@
     </row>
     <row r="3" spans="2:32" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
+      <c r="M3" s="22">
+        <v>45931</v>
+      </c>
       <c r="N3" s="22">
         <v>45292</v>
       </c>
@@ -1654,6 +1675,10 @@
       <c r="B4" s="43" t="s">
         <v>102</v>
       </c>
+      <c r="I4" s="44">
+        <f>+SUM(I5:I7)</f>
+        <v>1454</v>
+      </c>
       <c r="J4" s="44">
         <f>+SUM(J5:J7)</f>
         <v>1555</v>
@@ -1662,6 +1687,10 @@
         <f>+SUM(K5:K7)</f>
         <v>1655</v>
       </c>
+      <c r="M4" s="44">
+        <f>+SUM(M5:M7)</f>
+        <v>2168</v>
+      </c>
       <c r="N4" s="44">
         <f>+SUM(N5:N7)</f>
         <v>2325</v>
@@ -1675,11 +1704,17 @@
       <c r="B5" s="42" t="s">
         <v>103</v>
       </c>
+      <c r="I5" s="41">
+        <v>1032</v>
+      </c>
       <c r="J5" s="41">
         <v>1140</v>
       </c>
       <c r="K5" s="41">
         <v>1236</v>
+      </c>
+      <c r="M5" s="41">
+        <v>1749</v>
       </c>
       <c r="N5" s="41">
         <v>1841</v>
@@ -1692,11 +1727,17 @@
       <c r="B6" s="42" t="s">
         <v>104</v>
       </c>
+      <c r="I6" s="41">
+        <v>266</v>
+      </c>
       <c r="J6" s="41">
         <v>218</v>
       </c>
       <c r="K6" s="41">
         <v>252</v>
+      </c>
+      <c r="M6" s="41">
+        <v>248</v>
       </c>
       <c r="N6" s="41">
         <v>278</v>
@@ -1709,11 +1750,17 @@
       <c r="B7" s="42" t="s">
         <v>105</v>
       </c>
+      <c r="I7" s="41">
+        <v>156</v>
+      </c>
       <c r="J7" s="41">
         <v>197</v>
       </c>
       <c r="K7" s="41">
         <v>167</v>
+      </c>
+      <c r="M7" s="41">
+        <v>171</v>
       </c>
       <c r="N7" s="41">
         <v>206</v>
@@ -1726,6 +1773,10 @@
       <c r="B8" s="43" t="s">
         <v>101</v>
       </c>
+      <c r="I8" s="44">
+        <f>+SUM(I9:I12)</f>
+        <v>1454</v>
+      </c>
       <c r="J8" s="44">
         <f>+SUM(J9:J12)</f>
         <v>1555</v>
@@ -1734,6 +1785,10 @@
         <f>+SUM(K9:K12)</f>
         <v>1655</v>
       </c>
+      <c r="M8" s="44">
+        <f>+SUM(M9:M12)</f>
+        <v>2168</v>
+      </c>
       <c r="N8" s="44">
         <f>+SUM(N9:N12)</f>
         <v>2325</v>
@@ -1747,11 +1802,17 @@
       <c r="B9" s="42" t="s">
         <v>97</v>
       </c>
+      <c r="I9" s="41">
+        <v>808</v>
+      </c>
       <c r="J9" s="41">
         <v>775</v>
       </c>
       <c r="K9" s="41">
         <v>834</v>
+      </c>
+      <c r="M9" s="41">
+        <v>860</v>
       </c>
       <c r="N9" s="41">
         <v>1034</v>
@@ -1764,11 +1825,17 @@
       <c r="B10" s="42" t="s">
         <v>98</v>
       </c>
+      <c r="I10" s="41">
+        <v>455</v>
+      </c>
       <c r="J10" s="41">
         <v>544</v>
       </c>
       <c r="K10" s="41">
         <v>618</v>
+      </c>
+      <c r="M10" s="41">
+        <v>1097</v>
       </c>
       <c r="N10" s="41">
         <v>1059</v>
@@ -1781,11 +1848,17 @@
       <c r="B11" s="42" t="s">
         <v>99</v>
       </c>
+      <c r="I11" s="41">
+        <v>188</v>
+      </c>
       <c r="J11" s="41">
         <v>234</v>
       </c>
       <c r="K11" s="41">
         <v>200</v>
+      </c>
+      <c r="M11" s="41">
+        <v>210</v>
       </c>
       <c r="N11" s="41">
         <v>231</v>
@@ -1798,11 +1871,17 @@
       <c r="B12" s="42" t="s">
         <v>100</v>
       </c>
+      <c r="I12" s="41">
+        <v>3</v>
+      </c>
       <c r="J12" s="41">
         <v>2</v>
       </c>
       <c r="K12" s="41">
         <v>3</v>
+      </c>
+      <c r="M12" s="41">
+        <v>1</v>
       </c>
       <c r="N12" s="41">
         <v>1</v>
@@ -1815,12 +1894,18 @@
       <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
+      <c r="I13" s="25">
+        <v>1454</v>
+      </c>
       <c r="J13" s="25">
         <v>1555</v>
       </c>
       <c r="K13" s="25">
         <v>1655</v>
       </c>
+      <c r="M13" s="25">
+        <v>2168</v>
+      </c>
       <c r="N13" s="25">
         <v>2325</v>
       </c>
@@ -1829,15 +1914,15 @@
       </c>
       <c r="P13" s="25">
         <f>O13*(1+P32)</f>
-        <v>2700</v>
+        <v>2808</v>
       </c>
       <c r="Q13" s="25">
         <f>P13*(1+Q32)</f>
-        <v>3375</v>
+        <v>3510</v>
       </c>
       <c r="R13" s="25">
         <f>Q13*(1+R32)</f>
-        <v>4218.75</v>
+        <v>4387.5</v>
       </c>
       <c r="AA13" s="25">
         <v>9006</v>
@@ -1850,11 +1935,17 @@
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="I14" s="14">
+        <v>1305</v>
+      </c>
       <c r="J14" s="14">
         <v>1193</v>
       </c>
       <c r="K14" s="14">
         <v>1230</v>
+      </c>
+      <c r="M14" s="14">
+        <v>1454</v>
       </c>
       <c r="N14" s="14">
         <v>1513</v>
@@ -1867,6 +1958,10 @@
       <c r="B15" s="25" t="s">
         <v>30</v>
       </c>
+      <c r="I15" s="25">
+        <f>I13-I14</f>
+        <v>149</v>
+      </c>
       <c r="J15" s="25">
         <f>J13-J14</f>
         <v>362</v>
@@ -1875,6 +1970,10 @@
         <f>K13-K14</f>
         <v>425</v>
       </c>
+      <c r="M15" s="25">
+        <f>M13-M14</f>
+        <v>714</v>
+      </c>
       <c r="N15" s="25">
         <f>N13-N14</f>
         <v>812</v>
@@ -1888,11 +1987,17 @@
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="I16" s="14">
+        <v>171</v>
+      </c>
       <c r="J16" s="14">
         <v>161</v>
       </c>
       <c r="K16" s="14">
         <v>164</v>
+      </c>
+      <c r="M16" s="14">
+        <v>181</v>
       </c>
       <c r="N16" s="14">
         <v>184</v>
@@ -1905,11 +2010,17 @@
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="I17" s="14">
+        <v>105</v>
+      </c>
       <c r="J17" s="14">
         <v>108</v>
       </c>
       <c r="K17" s="14">
         <v>116</v>
+      </c>
+      <c r="M17" s="14">
+        <v>129</v>
       </c>
       <c r="N17" s="14">
         <v>139</v>
@@ -1922,11 +2033,17 @@
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="I18" s="14">
+        <v>2</v>
+      </c>
       <c r="J18" s="14">
         <v>-31</v>
       </c>
       <c r="K18" s="14">
         <v>2</v>
+      </c>
+      <c r="M18" s="14">
+        <v>1</v>
       </c>
       <c r="N18" s="14">
         <v>1</v>
@@ -1939,6 +2056,10 @@
       <c r="B19" s="25" t="s">
         <v>34</v>
       </c>
+      <c r="I19" s="25">
+        <f>I15-I16-I17-I18</f>
+        <v>-129</v>
+      </c>
       <c r="J19" s="25">
         <f>J15-J16-J17-J18</f>
         <v>124</v>
@@ -1947,6 +2068,10 @@
         <f>K15-K16-K17-K18</f>
         <v>143</v>
       </c>
+      <c r="M19" s="25">
+        <f>M15-M16-M17-M18</f>
+        <v>403</v>
+      </c>
       <c r="N19" s="25">
         <f>N15-N16-N17-N18</f>
         <v>488</v>
@@ -1960,11 +2085,17 @@
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="I20" s="14">
+        <v>2</v>
+      </c>
       <c r="J20" s="14">
         <v>3</v>
       </c>
       <c r="K20" s="14">
         <v>3</v>
+      </c>
+      <c r="M20" s="14">
+        <v>7</v>
       </c>
       <c r="N20" s="14">
         <v>8</v>
@@ -1977,11 +2108,17 @@
       <c r="B21" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="I21" s="14">
+        <v>84</v>
+      </c>
       <c r="J21" s="14">
         <v>84</v>
       </c>
       <c r="K21" s="14">
         <v>82</v>
+      </c>
+      <c r="M21" s="14">
+        <v>85</v>
       </c>
       <c r="N21" s="14">
         <v>84</v>
@@ -1994,10 +2131,16 @@
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="I22" s="14">
+        <v>104</v>
+      </c>
       <c r="J22" s="14">
         <v>0</v>
       </c>
       <c r="K22" s="14">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
         <v>0</v>
       </c>
       <c r="N22" s="14">
@@ -2011,10 +2154,16 @@
       <c r="B23" s="14" t="s">
         <v>38</v>
       </c>
+      <c r="I23" s="14">
+        <v>29</v>
+      </c>
       <c r="J23" s="14">
         <v>0</v>
       </c>
       <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
         <v>0</v>
       </c>
       <c r="N23" s="14">
@@ -2028,11 +2177,17 @@
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
+      <c r="I24" s="14">
+        <v>-11</v>
+      </c>
       <c r="J24" s="14">
         <v>-47</v>
       </c>
       <c r="K24" s="14">
         <v>-6</v>
+      </c>
+      <c r="M24" s="14">
+        <v>-9</v>
       </c>
       <c r="N24" s="14">
         <v>-62</v>
@@ -2045,6 +2200,10 @@
       <c r="B25" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="I25" s="14">
+        <f>I20-I21+I22-I23+I24</f>
+        <v>-18</v>
+      </c>
       <c r="J25" s="14">
         <f>J20-J21+J22-J23+J24</f>
         <v>-128</v>
@@ -2053,6 +2212,10 @@
         <f>K20-K21+K22-K23+K24</f>
         <v>-85</v>
       </c>
+      <c r="M25" s="14">
+        <f>M20-M21+M22-M23+M24</f>
+        <v>-87</v>
+      </c>
       <c r="N25" s="14">
         <f>N20-N21+N22-N23+N24</f>
         <v>-138</v>
@@ -2066,6 +2229,10 @@
       <c r="B26" s="14" t="s">
         <v>41</v>
       </c>
+      <c r="I26" s="14">
+        <f>I19+I25</f>
+        <v>-147</v>
+      </c>
       <c r="J26" s="14">
         <f>J19+J25</f>
         <v>-4</v>
@@ -2074,6 +2241,10 @@
         <f>K19+K25</f>
         <v>58</v>
       </c>
+      <c r="M26" s="14">
+        <f>M19+M25</f>
+        <v>316</v>
+      </c>
       <c r="N26" s="14">
         <f>N19+N25</f>
         <v>350</v>
@@ -2087,11 +2258,17 @@
       <c r="B27" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="I27" s="14">
+        <v>37</v>
+      </c>
       <c r="J27" s="14">
         <v>15</v>
       </c>
       <c r="K27" s="14">
         <v>33</v>
+      </c>
+      <c r="M27" s="14">
+        <v>11</v>
       </c>
       <c r="N27" s="14">
         <v>14</v>
@@ -2104,6 +2281,10 @@
       <c r="B28" s="25" t="s">
         <v>43</v>
       </c>
+      <c r="I28" s="25">
+        <f>I26-I27</f>
+        <v>-184</v>
+      </c>
       <c r="J28" s="25">
         <f>J26-J27</f>
         <v>-19</v>
@@ -2112,6 +2293,10 @@
         <f>K26-K27</f>
         <v>25</v>
       </c>
+      <c r="M28" s="25">
+        <f>M26-M27</f>
+        <v>305</v>
+      </c>
       <c r="N28" s="25">
         <f>N26-N27</f>
         <v>336</v>
@@ -2125,6 +2310,10 @@
       <c r="B29" s="23" t="s">
         <v>44</v>
       </c>
+      <c r="I29" s="23">
+        <f>I28/I30</f>
+        <v>-0.88461538461538458</v>
+      </c>
       <c r="J29" s="23">
         <f>J28/J30</f>
         <v>-9.0909090909090912E-2</v>
@@ -2133,6 +2322,10 @@
         <f>K28/K30</f>
         <v>0.11904761904761904</v>
       </c>
+      <c r="M29" s="23">
+        <f>M28/M30</f>
+        <v>1.4454976303317535</v>
+      </c>
       <c r="N29" s="23">
         <f>N28/N30</f>
         <v>1.5849056603773586</v>
@@ -2146,11 +2339,17 @@
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="I30" s="1">
+        <v>208</v>
+      </c>
       <c r="J30" s="1">
         <v>209</v>
       </c>
       <c r="K30" s="1">
         <v>210</v>
+      </c>
+      <c r="M30" s="1">
+        <v>211</v>
       </c>
       <c r="N30" s="1">
         <v>212</v>
@@ -2163,6 +2362,10 @@
       <c r="B32" s="28" t="s">
         <v>45</v>
       </c>
+      <c r="M32" s="28">
+        <f>M13/I13-1</f>
+        <v>0.49105914718019261</v>
+      </c>
       <c r="N32" s="28">
         <f>N13/J13-1</f>
         <v>0.49517684887459801</v>
@@ -2172,7 +2375,7 @@
         <v>0.30513595166163143</v>
       </c>
       <c r="P32" s="28">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q32" s="28">
         <v>0.25</v>
@@ -2189,6 +2392,10 @@
       <c r="B33" s="45" t="s">
         <v>106</v>
       </c>
+      <c r="M33" s="46">
+        <f>M5/I5-1</f>
+        <v>0.69476744186046502</v>
+      </c>
       <c r="N33" s="46">
         <f>N5/J5-1</f>
         <v>0.61491228070175441</v>
@@ -2202,6 +2409,10 @@
       <c r="B34" s="45" t="s">
         <v>107</v>
       </c>
+      <c r="M34" s="46">
+        <f>M6/I6-1</f>
+        <v>-6.7669172932330879E-2</v>
+      </c>
       <c r="N34" s="46">
         <f>N6/J6-1</f>
         <v>0.27522935779816504</v>
@@ -2215,6 +2426,10 @@
       <c r="B35" s="45" t="s">
         <v>108</v>
       </c>
+      <c r="M35" s="46">
+        <f>M7/I7-1</f>
+        <v>9.6153846153846256E-2</v>
+      </c>
       <c r="N35" s="46">
         <f>N7/J7-1</f>
         <v>4.5685279187817285E-2</v>
@@ -2228,6 +2443,10 @@
       <c r="B36" s="45" t="s">
         <v>109</v>
       </c>
+      <c r="M36" s="46">
+        <f>M9/I9-1</f>
+        <v>6.4356435643564414E-2</v>
+      </c>
       <c r="N36" s="46">
         <f>N9/J9-1</f>
         <v>0.33419354838709681</v>
@@ -2241,6 +2460,10 @@
       <c r="B37" s="45" t="s">
         <v>110</v>
       </c>
+      <c r="M37" s="46">
+        <f>M10/I10-1</f>
+        <v>1.4109890109890109</v>
+      </c>
       <c r="N37" s="46">
         <f>N10/J10-1</f>
         <v>0.94669117647058831</v>
@@ -2254,6 +2477,10 @@
       <c r="B38" s="45" t="s">
         <v>111</v>
       </c>
+      <c r="M38" s="46">
+        <f>M11/I11-1</f>
+        <v>0.11702127659574457</v>
+      </c>
       <c r="N38" s="46">
         <f>N11/J11-1</f>
         <v>-1.2820512820512775E-2</v>
@@ -2267,6 +2494,10 @@
       <c r="B39" s="45" t="s">
         <v>112</v>
       </c>
+      <c r="M39" s="46">
+        <f>M12/I12-1</f>
+        <v>-0.66666666666666674</v>
+      </c>
       <c r="N39" s="46">
         <f>N12/J12-1</f>
         <v>-0.5</v>
@@ -2280,10 +2511,18 @@
       <c r="B40" s="24" t="s">
         <v>46</v>
       </c>
+      <c r="J40" s="24">
+        <f>J13/I13-1</f>
+        <v>6.9463548830811517E-2</v>
+      </c>
       <c r="K40" s="24">
         <f>K13/J13-1</f>
         <v>6.4308681672025747E-2</v>
       </c>
+      <c r="N40" s="24">
+        <f>N13/M13-1</f>
+        <v>7.2416974169741799E-2</v>
+      </c>
       <c r="O40" s="24">
         <f>O13/N13-1</f>
         <v>-7.096774193548383E-2</v>
@@ -2293,6 +2532,10 @@
       <c r="B42" s="24" t="s">
         <v>47</v>
       </c>
+      <c r="I42" s="24">
+        <f>I15/I13</f>
+        <v>0.10247592847317744</v>
+      </c>
       <c r="J42" s="24">
         <f>J15/J13</f>
         <v>0.23279742765273312</v>
@@ -2301,6 +2544,10 @@
         <f>K15/K13</f>
         <v>0.25679758308157102</v>
       </c>
+      <c r="M42" s="24">
+        <f>M15/M13</f>
+        <v>0.32933579335793356</v>
+      </c>
       <c r="N42" s="24">
         <f>N15/N13</f>
         <v>0.34924731182795699</v>
@@ -2314,6 +2561,10 @@
       <c r="B43" s="24" t="s">
         <v>48</v>
       </c>
+      <c r="I43" s="24">
+        <f>I19/I13</f>
+        <v>-8.8720770288858317E-2</v>
+      </c>
       <c r="J43" s="24">
         <f>J19/J13</f>
         <v>7.9742765273311894E-2</v>
@@ -2322,6 +2573,10 @@
         <f>K19/K13</f>
         <v>8.6404833836858E-2</v>
       </c>
+      <c r="M43" s="24">
+        <f>M19/M13</f>
+        <v>0.18588560885608857</v>
+      </c>
       <c r="N43" s="24">
         <f>N19/N13</f>
         <v>0.20989247311827958</v>
@@ -2335,6 +2590,10 @@
       <c r="B44" s="24" t="s">
         <v>49</v>
       </c>
+      <c r="I44" s="24">
+        <f>I28/I13</f>
+        <v>-0.12654745529573591</v>
+      </c>
       <c r="J44" s="24">
         <f>J28/J13</f>
         <v>-1.2218649517684888E-2</v>
@@ -2343,6 +2602,10 @@
         <f>K28/K13</f>
         <v>1.5105740181268883E-2</v>
       </c>
+      <c r="M44" s="24">
+        <f>M28/M13</f>
+        <v>0.14068265682656828</v>
+      </c>
       <c r="N44" s="24">
         <f>N28/N13</f>
         <v>0.14451612903225808</v>
@@ -2356,6 +2619,10 @@
       <c r="B45" s="24" t="s">
         <v>50</v>
       </c>
+      <c r="I45" s="24">
+        <f>I27/I26</f>
+        <v>-0.25170068027210885</v>
+      </c>
       <c r="J45" s="24">
         <f>J27/J26</f>
         <v>-3.75</v>
@@ -2363,6 +2630,10 @@
       <c r="K45" s="24">
         <f>K27/K26</f>
         <v>0.56896551724137934</v>
+      </c>
+      <c r="M45" s="24">
+        <f>M27/M26</f>
+        <v>3.4810126582278479E-2</v>
       </c>
       <c r="N45" s="24">
         <f>N27/N26</f>
@@ -2669,7 +2940,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="N8:O8 J8:K8" formulaRange="1"/>
+    <ignoredError sqref="M8:O8 J8:K8" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/$STX.xlsx
+++ b/$STX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F49B489-8299-4D63-B1AB-9A9218C2B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C49937-7DC7-4020-AD68-60D86785155C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47E727E2-A9A8-4982-8579-220A7F2C2C9D}"/>
   </bookViews>
@@ -667,6 +667,21 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,21 +707,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1189,7 +1189,7 @@
   <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D23"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1208,19 +1208,19 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="G5" s="32" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="G5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1245,9 +1245,9 @@
         <v>212.21224100000001</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="47">
+        <v>117</v>
+      </c>
+      <c r="G7" s="36">
         <v>45778</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1283,7 +1283,7 @@
         <v>814</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5"/>
@@ -1301,7 +1301,7 @@
         <v>5219</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5"/>
@@ -1319,7 +1319,7 @@
         <v>-4405</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5"/>
@@ -1361,11 +1361,11 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="G15" s="13"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1377,77 +1377,77 @@
       <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="D29" s="18">
         <v>37377</v>
@@ -1457,50 +1457,50 @@
       <c r="B30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1536,10 +1536,10 @@
   <dimension ref="B1:AF91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="X90" sqref="X90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1577,7 +1577,7 @@
       <c r="K1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="27" t="s">
         <v>51</v>
       </c>
       <c r="M1" s="19" t="s">
@@ -1616,7 +1616,7 @@
       <c r="Y1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="27" t="s">
         <v>85</v>
       </c>
       <c r="AA1" s="19" t="s">
@@ -1640,6 +1640,12 @@
     </row>
     <row r="2" spans="2:32" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="20"/>
+      <c r="D2" s="26">
+        <v>44743</v>
+      </c>
+      <c r="H2" s="26">
+        <v>45107</v>
+      </c>
       <c r="I2" s="26">
         <v>45198</v>
       </c>
@@ -1649,6 +1655,9 @@
       <c r="K2" s="26">
         <v>45380</v>
       </c>
+      <c r="L2" s="26">
+        <v>45471</v>
+      </c>
       <c r="M2" s="26">
         <v>45562</v>
       </c>
@@ -1658,9 +1667,21 @@
       <c r="O2" s="26">
         <v>45744</v>
       </c>
+      <c r="X2" s="26">
+        <v>44743</v>
+      </c>
+      <c r="Y2" s="26">
+        <v>45107</v>
+      </c>
+      <c r="Z2" s="26">
+        <v>45471</v>
+      </c>
     </row>
     <row r="3" spans="2:32" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
+      <c r="L3" s="22">
+        <v>37469</v>
+      </c>
       <c r="M3" s="22">
         <v>45931</v>
       </c>
@@ -1670,223 +1691,250 @@
       <c r="O3" s="22">
         <v>45779</v>
       </c>
-    </row>
-    <row r="4" spans="2:32" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+      <c r="Z3" s="22">
+        <v>37469</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="33">
         <f>+SUM(I5:I7)</f>
         <v>1454</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="33">
         <f>+SUM(J5:J7)</f>
         <v>1555</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="33">
         <f>+SUM(K5:K7)</f>
         <v>1655</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="33">
         <f>+SUM(M5:M7)</f>
         <v>2168</v>
       </c>
-      <c r="N4" s="44">
+      <c r="N4" s="33">
         <f>+SUM(N5:N7)</f>
         <v>2325</v>
       </c>
-      <c r="O4" s="44">
+      <c r="O4" s="33">
         <f>+SUM(O5:O7)</f>
         <v>2160</v>
       </c>
-    </row>
-    <row r="5" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
+      <c r="X4" s="33">
+        <f t="shared" ref="X4:Z4" si="0">+SUM(X5:X7)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="30">
         <v>1032</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="30">
         <v>1140</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="30">
         <v>1236</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="30">
         <v>1749</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="30">
         <v>1841</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="30">
         <v>1711</v>
       </c>
     </row>
-    <row r="6" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="42" t="s">
+    <row r="6" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="30">
         <v>266</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="30">
         <v>218</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="30">
         <v>252</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="30">
         <v>248</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="30">
         <v>278</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="30">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="42" t="s">
+    <row r="7" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="30">
         <v>156</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="30">
         <v>197</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="30">
         <v>167</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="30">
         <v>171</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="30">
         <v>206</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="30">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="2:32" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
+    <row r="8" spans="2:32" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="33">
         <f>+SUM(I9:I12)</f>
         <v>1454</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="33">
         <f>+SUM(J9:J12)</f>
         <v>1555</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="33">
         <f>+SUM(K9:K12)</f>
         <v>1655</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="33">
         <f>+SUM(M9:M12)</f>
         <v>2168</v>
       </c>
-      <c r="N8" s="44">
+      <c r="N8" s="33">
         <f>+SUM(N9:N12)</f>
         <v>2325</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="33">
         <f>+SUM(O9:O12)</f>
         <v>2160</v>
       </c>
-    </row>
-    <row r="9" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="42" t="s">
+      <c r="X8" s="33">
+        <f t="shared" ref="X8:Z8" si="1">+SUM(X9:X12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="30">
         <v>808</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="30">
         <v>775</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="30">
         <v>834</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="30">
         <v>860</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="30">
         <v>1034</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="30">
         <v>847</v>
       </c>
     </row>
-    <row r="10" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="42" t="s">
+    <row r="10" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="30">
         <v>455</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="30">
         <v>544</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="30">
         <v>618</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="30">
         <v>1097</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="30">
         <v>1059</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="30">
         <v>1090</v>
       </c>
     </row>
-    <row r="11" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="42" t="s">
+    <row r="11" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="30">
         <v>188</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="30">
         <v>234</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="30">
         <v>200</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="30">
         <v>210</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="30">
         <v>231</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="30">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="2:32" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="30">
         <v>3</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="30">
         <v>2</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="30">
         <v>3</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="30">
         <v>1</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="30">
         <v>1</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="30">
         <v>1</v>
       </c>
     </row>
@@ -1903,6 +1951,10 @@
       <c r="K13" s="25">
         <v>1655</v>
       </c>
+      <c r="L13" s="25">
+        <f>+Z13-SUM(I13:K13)</f>
+        <v>1887</v>
+      </c>
       <c r="M13" s="25">
         <v>2168</v>
       </c>
@@ -1924,6 +1976,15 @@
         <f>Q13*(1+R32)</f>
         <v>4387.5</v>
       </c>
+      <c r="X13" s="25">
+        <v>11661</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>7384</v>
+      </c>
+      <c r="Z13" s="25">
+        <v>6551</v>
+      </c>
       <c r="AA13" s="25">
         <v>9006</v>
       </c>
@@ -1944,6 +2005,10 @@
       <c r="K14" s="14">
         <v>1230</v>
       </c>
+      <c r="L14" s="14">
+        <f>+Z14-SUM(I14:K14)</f>
+        <v>1287</v>
+      </c>
       <c r="M14" s="14">
         <v>1454</v>
       </c>
@@ -1952,6 +2017,15 @@
       </c>
       <c r="O14" s="14">
         <v>1400</v>
+      </c>
+      <c r="X14" s="14">
+        <v>8192</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>6033</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>5015</v>
       </c>
     </row>
     <row r="15" spans="2:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -1959,28 +2033,44 @@
         <v>30</v>
       </c>
       <c r="I15" s="25">
-        <f>I13-I14</f>
+        <f t="shared" ref="I15:O15" si="2">I13-I14</f>
         <v>149</v>
       </c>
       <c r="J15" s="25">
-        <f>J13-J14</f>
+        <f t="shared" si="2"/>
         <v>362</v>
       </c>
       <c r="K15" s="25">
-        <f>K13-K14</f>
+        <f t="shared" si="2"/>
         <v>425</v>
       </c>
+      <c r="L15" s="25">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
       <c r="M15" s="25">
-        <f>M13-M14</f>
+        <f t="shared" si="2"/>
         <v>714</v>
       </c>
       <c r="N15" s="25">
-        <f>N13-N14</f>
+        <f t="shared" si="2"/>
         <v>812</v>
       </c>
       <c r="O15" s="25">
-        <f>O13-O14</f>
+        <f t="shared" si="2"/>
         <v>760</v>
+      </c>
+      <c r="X15" s="25">
+        <f t="shared" ref="X15:Y15" si="3">X13-X14</f>
+        <v>3469</v>
+      </c>
+      <c r="Y15" s="25">
+        <f t="shared" si="3"/>
+        <v>1351</v>
+      </c>
+      <c r="Z15" s="25">
+        <f>Z13-Z14</f>
+        <v>1536</v>
       </c>
     </row>
     <row r="16" spans="2:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -1996,6 +2086,10 @@
       <c r="K16" s="14">
         <v>164</v>
       </c>
+      <c r="L16" s="14">
+        <f>+Z16-SUM(I16:K16)</f>
+        <v>158</v>
+      </c>
       <c r="M16" s="14">
         <v>181</v>
       </c>
@@ -2004,6 +2098,15 @@
       </c>
       <c r="O16" s="14">
         <v>180</v>
+      </c>
+      <c r="X16" s="14">
+        <v>941</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>797</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>654</v>
       </c>
     </row>
     <row r="17" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2019,6 +2122,10 @@
       <c r="K17" s="14">
         <v>116</v>
       </c>
+      <c r="L17" s="14">
+        <f>+Z17-SUM(I17:K17)</f>
+        <v>131</v>
+      </c>
       <c r="M17" s="14">
         <v>129</v>
       </c>
@@ -2027,6 +2134,15 @@
       </c>
       <c r="O17" s="14">
         <v>139</v>
+      </c>
+      <c r="X17" s="14">
+        <v>559</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>491</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2042,6 +2158,10 @@
       <c r="K18" s="14">
         <v>2</v>
       </c>
+      <c r="L18" s="14">
+        <f>+Z18-SUM(I18:K18)</f>
+        <v>-3</v>
+      </c>
       <c r="M18" s="14">
         <v>1</v>
       </c>
@@ -2050,6 +2170,17 @@
       </c>
       <c r="O18" s="14">
         <v>10</v>
+      </c>
+      <c r="X18" s="14">
+        <f>11+3</f>
+        <v>14</v>
+      </c>
+      <c r="Y18" s="14">
+        <f>3+300+102</f>
+        <v>405</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>-30</v>
       </c>
     </row>
     <row r="19" spans="2:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -2057,28 +2188,44 @@
         <v>34</v>
       </c>
       <c r="I19" s="25">
-        <f>I15-I16-I17-I18</f>
+        <f t="shared" ref="I19:O19" si="4">I15-I16-I17-I18</f>
         <v>-129</v>
       </c>
       <c r="J19" s="25">
-        <f>J15-J16-J17-J18</f>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="K19" s="25">
-        <f>K15-K16-K17-K18</f>
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
+      <c r="L19" s="25">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
       <c r="M19" s="25">
-        <f>M15-M16-M17-M18</f>
+        <f t="shared" si="4"/>
         <v>403</v>
       </c>
       <c r="N19" s="25">
-        <f>N15-N16-N17-N18</f>
+        <f t="shared" si="4"/>
         <v>488</v>
       </c>
       <c r="O19" s="25">
-        <f>O15-O16-O17-O18</f>
+        <f t="shared" si="4"/>
         <v>431</v>
+      </c>
+      <c r="X19" s="25">
+        <f t="shared" ref="X19:Y19" si="5">X15-X16-X17-X18</f>
+        <v>1955</v>
+      </c>
+      <c r="Y19" s="25">
+        <f t="shared" si="5"/>
+        <v>-342</v>
+      </c>
+      <c r="Z19" s="25">
+        <f>Z15-Z16-Z17-Z18</f>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2094,6 +2241,10 @@
       <c r="K20" s="14">
         <v>3</v>
       </c>
+      <c r="L20" s="14">
+        <f>+Z20-SUM(I20:K20)</f>
+        <v>7</v>
+      </c>
       <c r="M20" s="14">
         <v>7</v>
       </c>
@@ -2102,6 +2253,15 @@
       </c>
       <c r="O20" s="14">
         <v>4</v>
+      </c>
+      <c r="X20" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2117,6 +2277,10 @@
       <c r="K21" s="14">
         <v>82</v>
       </c>
+      <c r="L21" s="14">
+        <f>+Z21-SUM(I21:K21)</f>
+        <v>82</v>
+      </c>
       <c r="M21" s="14">
         <v>85</v>
       </c>
@@ -2125,6 +2289,15 @@
       </c>
       <c r="O21" s="14">
         <v>77</v>
+      </c>
+      <c r="X21" s="14">
+        <v>249</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>313</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2140,6 +2313,10 @@
       <c r="K22" s="14">
         <v>0</v>
       </c>
+      <c r="L22" s="14">
+        <f>+Z22-SUM(I22:K22)</f>
+        <v>0</v>
+      </c>
       <c r="M22" s="14">
         <v>0</v>
       </c>
@@ -2148,6 +2325,15 @@
       </c>
       <c r="O22" s="14">
         <v>0</v>
+      </c>
+      <c r="X22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2163,6 +2349,10 @@
       <c r="K23" s="14">
         <v>0</v>
       </c>
+      <c r="L23" s="14">
+        <f>+Z23-SUM(I23:K23)</f>
+        <v>0</v>
+      </c>
       <c r="M23" s="14">
         <v>0</v>
       </c>
@@ -2171,6 +2361,15 @@
       </c>
       <c r="O23" s="14">
         <v>4</v>
+      </c>
+      <c r="X23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>-190</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2186,6 +2385,10 @@
       <c r="K24" s="14">
         <v>-6</v>
       </c>
+      <c r="L24" s="14">
+        <f>+Z24-SUM(I24:K24)</f>
+        <v>299</v>
+      </c>
       <c r="M24" s="14">
         <v>-9</v>
       </c>
@@ -2194,6 +2397,16 @@
       </c>
       <c r="O24" s="14">
         <v>1</v>
+      </c>
+      <c r="X24" s="14">
+        <v>-29</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>-41</v>
+      </c>
+      <c r="Z24" s="14">
+        <f>313-78</f>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2201,28 +2414,44 @@
         <v>40</v>
       </c>
       <c r="I25" s="14">
-        <f>I20-I21+I22-I23+I24</f>
+        <f t="shared" ref="I25:O25" si="6">I20-I21+I22-I23+I24</f>
         <v>-18</v>
       </c>
       <c r="J25" s="14">
-        <f>J20-J21+J22-J23+J24</f>
+        <f t="shared" si="6"/>
         <v>-128</v>
       </c>
       <c r="K25" s="14">
-        <f>K20-K21+K22-K23+K24</f>
+        <f t="shared" si="6"/>
         <v>-85</v>
       </c>
+      <c r="L25" s="14">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
       <c r="M25" s="14">
-        <f>M20-M21+M22-M23+M24</f>
+        <f t="shared" si="6"/>
         <v>-87</v>
       </c>
       <c r="N25" s="14">
-        <f>N20-N21+N22-N23+N24</f>
+        <f t="shared" si="6"/>
         <v>-138</v>
       </c>
       <c r="O25" s="14">
-        <f>O20-O21+O22-O23+O24</f>
+        <f t="shared" si="6"/>
         <v>-76</v>
+      </c>
+      <c r="X25" s="14">
+        <f t="shared" ref="X25:Y25" si="7">X20-X21+X22-X23+X24</f>
+        <v>-276</v>
+      </c>
+      <c r="Y25" s="14">
+        <f t="shared" si="7"/>
+        <v>-154</v>
+      </c>
+      <c r="Z25" s="14">
+        <f>Z20-Z21+Z22-Z23+Z24</f>
+        <v>-7</v>
       </c>
     </row>
     <row r="26" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2230,28 +2459,44 @@
         <v>41</v>
       </c>
       <c r="I26" s="14">
-        <f>I19+I25</f>
+        <f t="shared" ref="I26:O26" si="8">I19+I25</f>
         <v>-147</v>
       </c>
       <c r="J26" s="14">
-        <f>J19+J25</f>
+        <f t="shared" si="8"/>
         <v>-4</v>
       </c>
       <c r="K26" s="14">
-        <f>K19+K25</f>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
+      <c r="L26" s="14">
+        <f t="shared" si="8"/>
+        <v>538</v>
+      </c>
       <c r="M26" s="14">
-        <f>M19+M25</f>
+        <f t="shared" si="8"/>
         <v>316</v>
       </c>
       <c r="N26" s="14">
-        <f>N19+N25</f>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="O26" s="14">
-        <f>O19+O25</f>
+        <f t="shared" si="8"/>
         <v>355</v>
+      </c>
+      <c r="X26" s="14">
+        <f t="shared" ref="X26:Y26" si="9">X19+X25</f>
+        <v>1679</v>
+      </c>
+      <c r="Y26" s="14">
+        <f t="shared" si="9"/>
+        <v>-496</v>
+      </c>
+      <c r="Z26" s="14">
+        <f>Z19+Z25</f>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2267,6 +2512,10 @@
       <c r="K27" s="14">
         <v>33</v>
       </c>
+      <c r="L27" s="14">
+        <f>+Z27-SUM(I27:K27)</f>
+        <v>25</v>
+      </c>
       <c r="M27" s="14">
         <v>11</v>
       </c>
@@ -2275,6 +2524,15 @@
       </c>
       <c r="O27" s="14">
         <v>15</v>
+      </c>
+      <c r="X27" s="14">
+        <v>30</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>33</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -2282,28 +2540,44 @@
         <v>43</v>
       </c>
       <c r="I28" s="25">
-        <f>I26-I27</f>
+        <f t="shared" ref="I28:O28" si="10">I26-I27</f>
         <v>-184</v>
       </c>
       <c r="J28" s="25">
-        <f>J26-J27</f>
+        <f t="shared" si="10"/>
         <v>-19</v>
       </c>
       <c r="K28" s="25">
-        <f>K26-K27</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
+      <c r="L28" s="25">
+        <f t="shared" si="10"/>
+        <v>513</v>
+      </c>
       <c r="M28" s="25">
-        <f>M26-M27</f>
+        <f t="shared" si="10"/>
         <v>305</v>
       </c>
       <c r="N28" s="25">
-        <f>N26-N27</f>
+        <f t="shared" si="10"/>
         <v>336</v>
       </c>
       <c r="O28" s="25">
-        <f>O26-O27</f>
+        <f t="shared" si="10"/>
         <v>340</v>
+      </c>
+      <c r="X28" s="25">
+        <f t="shared" ref="X28:Y28" si="11">X26-X27</f>
+        <v>1649</v>
+      </c>
+      <c r="Y28" s="25">
+        <f t="shared" si="11"/>
+        <v>-529</v>
+      </c>
+      <c r="Z28" s="25">
+        <f>Z26-Z27</f>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="2:28" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -2311,28 +2585,44 @@
         <v>44</v>
       </c>
       <c r="I29" s="23">
-        <f>I28/I30</f>
+        <f t="shared" ref="I29:O29" si="12">I28/I30</f>
         <v>-0.88461538461538458</v>
       </c>
       <c r="J29" s="23">
-        <f>J28/J30</f>
+        <f t="shared" si="12"/>
         <v>-9.0909090909090912E-2</v>
       </c>
       <c r="K29" s="23">
-        <f>K28/K30</f>
+        <f t="shared" si="12"/>
         <v>0.11904761904761904</v>
       </c>
+      <c r="L29" s="23">
+        <f t="shared" si="12"/>
+        <v>2.4545454545454546</v>
+      </c>
       <c r="M29" s="23">
-        <f>M28/M30</f>
+        <f t="shared" si="12"/>
         <v>1.4454976303317535</v>
       </c>
       <c r="N29" s="23">
-        <f>N28/N30</f>
+        <f t="shared" si="12"/>
         <v>1.5849056603773586</v>
       </c>
       <c r="O29" s="23">
-        <f>O28/O30</f>
+        <f t="shared" si="12"/>
         <v>1.6037735849056605</v>
+      </c>
+      <c r="X29" s="23">
+        <f>+X28/X30</f>
+        <v>7.4954545454545451</v>
+      </c>
+      <c r="Y29" s="23">
+        <f>+Y28/Y30</f>
+        <v>-2.5555555555555554</v>
+      </c>
+      <c r="Z29" s="23">
+        <f>+Z28/Z30</f>
+        <v>1.6028708133971292</v>
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.2">
@@ -2348,6 +2638,10 @@
       <c r="K30" s="1">
         <v>210</v>
       </c>
+      <c r="L30" s="1">
+        <f>+Z30</f>
+        <v>209</v>
+      </c>
       <c r="M30" s="1">
         <v>211</v>
       </c>
@@ -2356,6 +2650,15 @@
       </c>
       <c r="O30" s="1">
         <v>212</v>
+      </c>
+      <c r="X30" s="1">
+        <v>220</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>207</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="2:28" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -2383,265 +2686,349 @@
       <c r="R32" s="28">
         <v>0.25</v>
       </c>
+      <c r="Y32" s="28">
+        <f>Y13/X13-1</f>
+        <v>-0.36677814938684505</v>
+      </c>
+      <c r="Z32" s="28">
+        <f>Z13/Y13-1</f>
+        <v>-0.11281148429035748</v>
+      </c>
+      <c r="AA32" s="28">
+        <f>AA13/Z13-1</f>
+        <v>0.37475194626774533</v>
+      </c>
       <c r="AB32" s="28">
         <f>AB13/AA13-1</f>
         <v>0.12813679769042863</v>
       </c>
     </row>
-    <row r="33" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="45" t="s">
+    <row r="33" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="M33" s="46">
-        <f>M5/I5-1</f>
+      <c r="M33" s="35">
+        <f t="shared" ref="M33:O35" si="13">M5/I5-1</f>
         <v>0.69476744186046502</v>
       </c>
-      <c r="N33" s="46">
-        <f>N5/J5-1</f>
+      <c r="N33" s="35">
+        <f t="shared" si="13"/>
         <v>0.61491228070175441</v>
       </c>
-      <c r="O33" s="46">
-        <f>O5/K5-1</f>
+      <c r="O33" s="35">
+        <f t="shared" si="13"/>
         <v>0.38430420711974111</v>
       </c>
     </row>
-    <row r="34" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="45" t="s">
+    <row r="34" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="M34" s="46">
-        <f>M6/I6-1</f>
+      <c r="M34" s="35">
+        <f t="shared" si="13"/>
         <v>-6.7669172932330879E-2</v>
       </c>
-      <c r="N34" s="46">
-        <f>N6/J6-1</f>
+      <c r="N34" s="35">
+        <f t="shared" si="13"/>
         <v>0.27522935779816504</v>
       </c>
-      <c r="O34" s="46">
-        <f>O6/K6-1</f>
+      <c r="O34" s="35">
+        <f t="shared" si="13"/>
         <v>4.7619047619047672E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
+    <row r="35" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="M35" s="46">
-        <f>M7/I7-1</f>
+      <c r="M35" s="35">
+        <f t="shared" si="13"/>
         <v>9.6153846153846256E-2</v>
       </c>
-      <c r="N35" s="46">
-        <f>N7/J7-1</f>
+      <c r="N35" s="35">
+        <f t="shared" si="13"/>
         <v>4.5685279187817285E-2</v>
       </c>
-      <c r="O35" s="46">
-        <f>O7/K7-1</f>
+      <c r="O35" s="35">
+        <f t="shared" si="13"/>
         <v>0.10778443113772451</v>
       </c>
     </row>
-    <row r="36" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="45" t="s">
+    <row r="36" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M36" s="46">
-        <f>M9/I9-1</f>
+      <c r="M36" s="35">
+        <f t="shared" ref="M36:O39" si="14">M9/I9-1</f>
         <v>6.4356435643564414E-2</v>
       </c>
-      <c r="N36" s="46">
-        <f>N9/J9-1</f>
+      <c r="N36" s="35">
+        <f t="shared" si="14"/>
         <v>0.33419354838709681</v>
       </c>
-      <c r="O36" s="46">
-        <f>O9/K9-1</f>
+      <c r="O36" s="35">
+        <f t="shared" si="14"/>
         <v>1.5587529976019088E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="45" t="s">
+    <row r="37" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="M37" s="46">
-        <f>M10/I10-1</f>
+      <c r="M37" s="35">
+        <f t="shared" si="14"/>
         <v>1.4109890109890109</v>
       </c>
-      <c r="N37" s="46">
-        <f>N10/J10-1</f>
+      <c r="N37" s="35">
+        <f t="shared" si="14"/>
         <v>0.94669117647058831</v>
       </c>
-      <c r="O37" s="46">
-        <f>O10/K10-1</f>
+      <c r="O37" s="35">
+        <f t="shared" si="14"/>
         <v>0.7637540453074434</v>
       </c>
     </row>
-    <row r="38" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="45" t="s">
+    <row r="38" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="M38" s="46">
-        <f>M11/I11-1</f>
+      <c r="M38" s="35">
+        <f t="shared" si="14"/>
         <v>0.11702127659574457</v>
       </c>
-      <c r="N38" s="46">
-        <f>N11/J11-1</f>
+      <c r="N38" s="35">
+        <f t="shared" si="14"/>
         <v>-1.2820512820512775E-2</v>
       </c>
-      <c r="O38" s="46">
-        <f>O11/K11-1</f>
+      <c r="O38" s="35">
+        <f t="shared" si="14"/>
         <v>0.1100000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="45" t="s">
+    <row r="39" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="M39" s="46">
-        <f>M12/I12-1</f>
+      <c r="M39" s="35">
+        <f t="shared" si="14"/>
         <v>-0.66666666666666674</v>
       </c>
-      <c r="N39" s="46">
-        <f>N12/J12-1</f>
+      <c r="N39" s="35">
+        <f t="shared" si="14"/>
         <v>-0.5</v>
       </c>
-      <c r="O39" s="46">
-        <f>O12/K12-1</f>
+      <c r="O39" s="35">
+        <f t="shared" si="14"/>
         <v>-0.66666666666666674</v>
       </c>
     </row>
-    <row r="40" spans="2:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="24" t="s">
         <v>46</v>
       </c>
       <c r="J40" s="24">
-        <f>J13/I13-1</f>
+        <f t="shared" ref="J40:O40" si="15">J13/I13-1</f>
         <v>6.9463548830811517E-2</v>
       </c>
       <c r="K40" s="24">
-        <f>K13/J13-1</f>
+        <f t="shared" si="15"/>
         <v>6.4308681672025747E-2</v>
       </c>
+      <c r="L40" s="24">
+        <f t="shared" si="15"/>
+        <v>0.1401812688821753</v>
+      </c>
+      <c r="M40" s="24">
+        <f t="shared" si="15"/>
+        <v>0.14891361950185478</v>
+      </c>
       <c r="N40" s="24">
-        <f>N13/M13-1</f>
+        <f t="shared" si="15"/>
         <v>7.2416974169741799E-2</v>
       </c>
       <c r="O40" s="24">
-        <f>O13/N13-1</f>
+        <f t="shared" si="15"/>
         <v>-7.096774193548383E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="24" t="s">
         <v>47</v>
       </c>
       <c r="I42" s="24">
-        <f>I15/I13</f>
+        <f t="shared" ref="I42:O42" si="16">I15/I13</f>
         <v>0.10247592847317744</v>
       </c>
       <c r="J42" s="24">
-        <f>J15/J13</f>
+        <f t="shared" si="16"/>
         <v>0.23279742765273312</v>
       </c>
       <c r="K42" s="24">
-        <f>K15/K13</f>
+        <f t="shared" si="16"/>
         <v>0.25679758308157102</v>
       </c>
+      <c r="L42" s="24">
+        <f t="shared" si="16"/>
+        <v>0.31796502384737679</v>
+      </c>
       <c r="M42" s="24">
-        <f>M15/M13</f>
+        <f t="shared" si="16"/>
         <v>0.32933579335793356</v>
       </c>
       <c r="N42" s="24">
-        <f>N15/N13</f>
+        <f t="shared" si="16"/>
         <v>0.34924731182795699</v>
       </c>
       <c r="O42" s="24">
-        <f>O15/O13</f>
+        <f t="shared" si="16"/>
         <v>0.35185185185185186</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X42" s="24">
+        <f>X15/X13</f>
+        <v>0.29748735099905671</v>
+      </c>
+      <c r="Y42" s="24">
+        <f>Y15/Y13</f>
+        <v>0.1829631635969664</v>
+      </c>
+      <c r="Z42" s="24">
+        <f>Z15/Z13</f>
+        <v>0.23446802014959547</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="24" t="s">
         <v>48</v>
       </c>
       <c r="I43" s="24">
-        <f>I19/I13</f>
+        <f t="shared" ref="I43:O43" si="17">I19/I13</f>
         <v>-8.8720770288858317E-2</v>
       </c>
       <c r="J43" s="24">
-        <f>J19/J13</f>
+        <f t="shared" si="17"/>
         <v>7.9742765273311894E-2</v>
       </c>
       <c r="K43" s="24">
-        <f>K19/K13</f>
+        <f t="shared" si="17"/>
         <v>8.6404833836858E-2</v>
       </c>
+      <c r="L43" s="24">
+        <f t="shared" si="17"/>
+        <v>0.16640169581346051</v>
+      </c>
       <c r="M43" s="24">
-        <f>M19/M13</f>
+        <f t="shared" si="17"/>
         <v>0.18588560885608857</v>
       </c>
       <c r="N43" s="24">
-        <f>N19/N13</f>
+        <f t="shared" si="17"/>
         <v>0.20989247311827958</v>
       </c>
       <c r="O43" s="24">
-        <f>O19/O13</f>
+        <f t="shared" si="17"/>
         <v>0.19953703703703704</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X43" s="24">
+        <f>X19/X13</f>
+        <v>0.16765285996055226</v>
+      </c>
+      <c r="Y43" s="24">
+        <f>Y19/Y13</f>
+        <v>-4.6316359696641385E-2</v>
+      </c>
+      <c r="Z43" s="24">
+        <f>Z19/Z13</f>
+        <v>6.8997099679438248E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="24" t="s">
         <v>49</v>
       </c>
       <c r="I44" s="24">
-        <f>I28/I13</f>
+        <f t="shared" ref="I44:O44" si="18">I28/I13</f>
         <v>-0.12654745529573591</v>
       </c>
       <c r="J44" s="24">
-        <f>J28/J13</f>
+        <f t="shared" si="18"/>
         <v>-1.2218649517684888E-2</v>
       </c>
       <c r="K44" s="24">
-        <f>K28/K13</f>
+        <f t="shared" si="18"/>
         <v>1.5105740181268883E-2</v>
       </c>
+      <c r="L44" s="24">
+        <f t="shared" si="18"/>
+        <v>0.27186009538950717</v>
+      </c>
       <c r="M44" s="24">
-        <f>M28/M13</f>
+        <f t="shared" si="18"/>
         <v>0.14068265682656828</v>
       </c>
       <c r="N44" s="24">
-        <f>N28/N13</f>
+        <f t="shared" si="18"/>
         <v>0.14451612903225808</v>
       </c>
       <c r="O44" s="24">
-        <f>O28/O13</f>
+        <f t="shared" si="18"/>
         <v>0.15740740740740741</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X44" s="24">
+        <f>X28/X13</f>
+        <v>0.1414115427493354</v>
+      </c>
+      <c r="Y44" s="24">
+        <f>Y28/Y13</f>
+        <v>-7.164138678223185E-2</v>
+      </c>
+      <c r="Z44" s="24">
+        <f>Z28/Z13</f>
+        <v>5.1137230957105782E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="24" t="s">
         <v>50</v>
       </c>
       <c r="I45" s="24">
-        <f>I27/I26</f>
+        <f t="shared" ref="I45:O45" si="19">I27/I26</f>
         <v>-0.25170068027210885</v>
       </c>
       <c r="J45" s="24">
-        <f>J27/J26</f>
+        <f t="shared" si="19"/>
         <v>-3.75</v>
       </c>
       <c r="K45" s="24">
-        <f>K27/K26</f>
+        <f t="shared" si="19"/>
         <v>0.56896551724137934</v>
       </c>
+      <c r="L45" s="24">
+        <f t="shared" si="19"/>
+        <v>4.6468401486988845E-2</v>
+      </c>
       <c r="M45" s="24">
-        <f>M27/M26</f>
+        <f t="shared" si="19"/>
         <v>3.4810126582278479E-2</v>
       </c>
       <c r="N45" s="24">
-        <f>N27/N26</f>
+        <f t="shared" si="19"/>
         <v>0.04</v>
       </c>
       <c r="O45" s="24">
-        <f>O27/O26</f>
+        <f t="shared" si="19"/>
         <v>4.2253521126760563E-2</v>
+      </c>
+      <c r="X45" s="24">
+        <f>X27/X26</f>
+        <v>1.7867778439547351E-2</v>
+      </c>
+      <c r="Y45" s="24">
+        <f>Y27/Y26</f>
+        <v>-6.6532258064516125E-2</v>
+      </c>
+      <c r="Z45" s="24">
+        <f>Z27/Z26</f>
+        <v>0.24719101123595505</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
@@ -2877,57 +3264,111 @@
         <v>-4405</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B84" s="29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
+    <row r="85" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K85" s="1">
+      <c r="K85" s="14">
         <v>484</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O85" s="14">
         <v>575</v>
       </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
+      <c r="X85" s="14">
+        <v>1657</v>
+      </c>
+      <c r="Y85" s="14">
+        <v>942</v>
+      </c>
+      <c r="Z85" s="14">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K86" s="14">
         <v>200</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O86" s="14">
         <v>182</v>
       </c>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
+      <c r="X86" s="14">
+        <v>381</v>
+      </c>
+      <c r="Y86" s="14">
+        <v>316</v>
+      </c>
+      <c r="Z86" s="14">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="K87" s="1">
+      <c r="K87" s="14">
         <f>+K85-K86</f>
         <v>284</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O87" s="14">
         <f>+O85-O86</f>
         <v>393</v>
       </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="X87" s="14">
+        <f t="shared" ref="X87:Z87" si="20">+X85-X86</f>
+        <v>1276</v>
+      </c>
+      <c r="Y87" s="14">
+        <f t="shared" si="20"/>
+        <v>626</v>
+      </c>
+      <c r="Z87" s="14">
+        <f t="shared" si="20"/>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="X89" s="14">
+        <f>X87</f>
+        <v>1276</v>
+      </c>
+      <c r="Y89" s="14">
+        <f>Y87</f>
+        <v>626</v>
+      </c>
+      <c r="Z89" s="14">
+        <f>Z87</f>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="X90" s="1">
+        <f>X89/X30</f>
+        <v>5.8</v>
+      </c>
+      <c r="Y90" s="1">
+        <f>Y89/Y30</f>
+        <v>3.0241545893719808</v>
+      </c>
+      <c r="Z90" s="1">
+        <f>Z89/Z30</f>
+        <v>3.1770334928229667</v>
+      </c>
+    </row>
+    <row r="91" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>123</v>
       </c>
@@ -2937,11 +3378,15 @@
   <hyperlinks>
     <hyperlink ref="O1" r:id="rId1" location="i6f501b0b8fd7454798c65eb9140df698_22" display="Q125" xr:uid="{143F5CA7-CE9C-4C9D-9977-316514D216B5}"/>
     <hyperlink ref="N1" r:id="rId2" display="Q424" xr:uid="{48A837BF-C9B1-4D77-9836-7B9F12505BE7}"/>
+    <hyperlink ref="L1" r:id="rId3" xr:uid="{5E90ACED-FF91-4211-8BDA-8A4C9AA29D20}"/>
+    <hyperlink ref="Z1" r:id="rId4" xr:uid="{AE1C6B43-A977-4DC5-B5D3-AFAAB5F8AA44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <ignoredErrors>
-    <ignoredError sqref="M8:O8 J8:K8" formulaRange="1"/>
+    <ignoredError sqref="M8:O8 I8:K8 X8:Z8" formulaRange="1"/>
+    <ignoredError sqref="L15:L30" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/$STX.xlsx
+++ b/$STX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C49937-7DC7-4020-AD68-60D86785155C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C1E774-0C69-4280-A7B8-DEFF043989D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47E727E2-A9A8-4982-8579-220A7F2C2C9D}"/>
   </bookViews>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="127">
   <si>
     <t>$STX</t>
   </si>
@@ -413,13 +404,21 @@
   </si>
   <si>
     <t>Q226</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
+    <numFmt numFmtId="166" formatCode="0\x"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +484,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -608,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -625,9 +630,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,12 +684,6 @@
     <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,16 +693,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -788,14 +804,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -812,7 +828,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15563850" y="19050"/>
+          <a:off x="16792575" y="19050"/>
           <a:ext cx="0" cy="15363825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -838,14 +854,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -862,7 +878,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9467850" y="0"/>
+          <a:off x="10096500" y="0"/>
           <a:ext cx="0" cy="15363825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1189,7 +1205,7 @@
   <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1208,28 +1224,28 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="G5" s="39" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="G5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="41"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>107.29</v>
-      </c>
-      <c r="D6" s="16"/>
+        <v>151.29</v>
+      </c>
+      <c r="D6" s="15"/>
       <c r="G6" s="11"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1241,13 +1257,13 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>212.21224100000001</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="36">
+      <c r="D7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="35">
         <v>45778</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1262,11 +1278,11 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <f>C6*C7</f>
-        <v>22768.251336890004</v>
-      </c>
-      <c r="D8" s="16"/>
+        <v>32105.58994089</v>
+      </c>
+      <c r="D8" s="15"/>
       <c r="G8" s="11"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1278,12 +1294,12 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14">
-        <f>+'Financial Model'!O78</f>
-        <v>814</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>117</v>
+      <c r="C9" s="13">
+        <f>+'Financial Model'!P78</f>
+        <v>891</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5"/>
@@ -1296,12 +1312,12 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14">
-        <f>+'Financial Model'!O79</f>
-        <v>5219</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>117</v>
+      <c r="C10" s="13">
+        <f>+'Financial Model'!P79</f>
+        <v>5072</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5"/>
@@ -1314,12 +1330,12 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <f>C9-C10</f>
-        <v>-4405</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>117</v>
+        <v>-4181</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5"/>
@@ -1332,11 +1348,11 @@
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <f>C8-C11</f>
-        <v>27173.251336890004</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>36286.58994089</v>
+      </c>
+      <c r="D12" s="16"/>
       <c r="G12" s="11"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1361,12 +1377,12 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1377,138 +1393,139 @@
       <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="18">
-        <v>37377</v>
+      <c r="C29" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="17">
+        <v>47300</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
+      <c r="C35" s="48">
+        <f>+C8/'Financial Model'!AA13</f>
+        <v>3.5292502957997143</v>
+      </c>
+      <c r="D35" s="49"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
+      <c r="C37" s="50">
+        <f>+C6/'Financial Model'!AA29</f>
+        <v>21.833546630360789</v>
+      </c>
+      <c r="D37" s="51"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1525,6 +1542,11 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1536,10 +1558,10 @@
   <dimension ref="B1:AF91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X90" sqref="X90"/>
+      <selection pane="bottomRight" activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1549,1083 +1571,1228 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="2:32" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="2:32" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20"/>
-      <c r="D2" s="26">
+    <row r="2" spans="2:32" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="19"/>
+      <c r="D2" s="25">
         <v>44743</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <v>45107</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <v>45198</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="25">
         <v>45289</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <v>45380</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="25">
         <v>45471</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <v>45562</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <v>45653</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <v>45744</v>
       </c>
-      <c r="X2" s="26">
+      <c r="P2" s="25">
+        <v>45835</v>
+      </c>
+      <c r="X2" s="25">
         <v>44743</v>
       </c>
-      <c r="Y2" s="26">
+      <c r="Y2" s="25">
         <v>45107</v>
       </c>
-      <c r="Z2" s="26">
+      <c r="Z2" s="25">
         <v>45471</v>
       </c>
-    </row>
-    <row r="3" spans="2:32" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20"/>
-      <c r="L3" s="22">
+      <c r="AA2" s="25">
+        <f>+P2</f>
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="19"/>
+      <c r="L3" s="21">
         <v>37469</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="21">
         <v>45931</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="21">
         <v>45292</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="21">
         <v>45779</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="P3" s="21">
+        <v>47300</v>
+      </c>
+      <c r="Z3" s="21">
         <v>37469</v>
       </c>
-    </row>
-    <row r="4" spans="2:32" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="32" t="s">
+      <c r="AA3" s="21">
+        <f>+P3</f>
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="32">
         <f>+SUM(I5:I7)</f>
         <v>1454</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <f>+SUM(J5:J7)</f>
         <v>1555</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="32">
         <f>+SUM(K5:K7)</f>
         <v>1655</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="32">
         <f>+SUM(M5:M7)</f>
         <v>2168</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="32">
         <f>+SUM(N5:N7)</f>
         <v>2325</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="32">
         <f>+SUM(O5:O7)</f>
         <v>2160</v>
       </c>
-      <c r="X4" s="33">
+      <c r="X4" s="32">
         <f t="shared" ref="X4:Z4" si="0">+SUM(X5:X7)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="33">
+      <c r="Y4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="33">
+      <c r="Z4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="29">
         <v>1032</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="29">
         <v>1140</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="29">
         <v>1236</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="29">
         <v>1749</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="29">
         <v>1841</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="29">
         <v>1711</v>
       </c>
     </row>
-    <row r="6" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="29">
         <v>266</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>218</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="29">
         <v>252</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="29">
         <v>248</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="29">
         <v>278</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="29">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="31" t="s">
+    <row r="7" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>156</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <v>197</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="29">
         <v>167</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="29">
         <v>171</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="29">
         <v>206</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="29">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="2:32" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="32">
         <f>+SUM(I9:I12)</f>
         <v>1454</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="32">
         <f>+SUM(J9:J12)</f>
         <v>1555</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="32">
         <f>+SUM(K9:K12)</f>
         <v>1655</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="32">
         <f>+SUM(M9:M12)</f>
         <v>2168</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="32">
         <f>+SUM(N9:N12)</f>
         <v>2325</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="32">
         <f>+SUM(O9:O12)</f>
         <v>2160</v>
       </c>
-      <c r="X8" s="33">
+      <c r="X8" s="32">
         <f t="shared" ref="X8:Z8" si="1">+SUM(X9:X12)</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="33">
+      <c r="Y8" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="33">
+      <c r="Z8" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>808</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <v>775</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <v>834</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="29">
         <v>860</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="29">
         <v>1034</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="29">
         <v>847</v>
       </c>
     </row>
-    <row r="10" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="29">
         <v>455</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <v>544</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="29">
         <v>618</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="29">
         <v>1097</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="29">
         <v>1059</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="29">
         <v>1090</v>
       </c>
     </row>
-    <row r="11" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>188</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <v>234</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="29">
         <v>200</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="29">
         <v>210</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="29">
         <v>231</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="29">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="2:32" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="31" t="s">
+    <row r="12" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="29">
         <v>3</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="29">
         <v>2</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="29">
         <v>3</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="29">
         <v>1</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="29">
         <v>1</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="2:32" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="24">
         <v>1454</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="24">
         <v>1555</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="24">
         <v>1655</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="24">
         <f>+Z13-SUM(I13:K13)</f>
         <v>1887</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="24">
         <v>2168</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="24">
         <v>2325</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="24">
         <v>2160</v>
       </c>
-      <c r="P13" s="25">
-        <f>O13*(1+P32)</f>
-        <v>2808</v>
-      </c>
-      <c r="Q13" s="25">
+      <c r="P13" s="24">
+        <v>2444</v>
+      </c>
+      <c r="Q13" s="24">
         <f>P13*(1+Q32)</f>
-        <v>3510</v>
-      </c>
-      <c r="R13" s="25">
+        <v>3055</v>
+      </c>
+      <c r="R13" s="24">
         <f>Q13*(1+R32)</f>
-        <v>4387.5</v>
-      </c>
-      <c r="X13" s="25">
+        <v>3818.75</v>
+      </c>
+      <c r="X13" s="24">
         <v>11661</v>
       </c>
-      <c r="Y13" s="25">
+      <c r="Y13" s="24">
         <v>7384</v>
       </c>
-      <c r="Z13" s="25">
+      <c r="Z13" s="24">
         <v>6551</v>
       </c>
-      <c r="AA13" s="25">
-        <v>9006</v>
-      </c>
-      <c r="AB13" s="25">
+      <c r="AA13" s="24">
+        <f>+SUM(M13:P13)</f>
+        <v>9097</v>
+      </c>
+      <c r="AB13" s="24">
         <v>10160</v>
       </c>
     </row>
-    <row r="14" spans="2:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="2:32" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>1305</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>1193</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>1230</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <f>+Z14-SUM(I14:K14)</f>
         <v>1287</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="13">
         <v>1454</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="13">
         <v>1513</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="13">
         <v>1400</v>
       </c>
-      <c r="X14" s="14">
+      <c r="P14" s="13">
+        <v>1530</v>
+      </c>
+      <c r="X14" s="13">
         <v>8192</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Y14" s="13">
         <v>6033</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="Z14" s="13">
         <v>5015</v>
       </c>
-    </row>
-    <row r="15" spans="2:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="s">
+      <c r="AA14" s="13">
+        <f>+SUM(M14:P14)</f>
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="25">
-        <f t="shared" ref="I15:O15" si="2">I13-I14</f>
+      <c r="I15" s="24">
+        <f t="shared" ref="I15:P15" si="2">I13-I14</f>
         <v>149</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="24">
         <f t="shared" si="2"/>
         <v>362</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="24">
         <f t="shared" si="2"/>
         <v>425</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="24">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="24">
         <f t="shared" si="2"/>
         <v>714</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="24">
         <f t="shared" si="2"/>
         <v>812</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="24">
         <f t="shared" si="2"/>
         <v>760</v>
       </c>
-      <c r="X15" s="25">
+      <c r="P15" s="24">
+        <f t="shared" si="2"/>
+        <v>914</v>
+      </c>
+      <c r="X15" s="24">
         <f t="shared" ref="X15:Y15" si="3">X13-X14</f>
         <v>3469</v>
       </c>
-      <c r="Y15" s="25">
+      <c r="Y15" s="24">
         <f t="shared" si="3"/>
         <v>1351</v>
       </c>
-      <c r="Z15" s="25">
+      <c r="Z15" s="24">
         <f>Z13-Z14</f>
         <v>1536</v>
       </c>
-    </row>
-    <row r="16" spans="2:32" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
+      <c r="AA15" s="24">
+        <f>AA13-AA14</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>171</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>161</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>164</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <f>+Z16-SUM(I16:K16)</f>
         <v>158</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <v>181</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="13">
         <v>184</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="13">
         <v>180</v>
       </c>
-      <c r="X16" s="14">
+      <c r="P16" s="13">
+        <v>179</v>
+      </c>
+      <c r="X16" s="13">
         <v>941</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="Y16" s="13">
         <v>797</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="Z16" s="13">
         <v>654</v>
       </c>
-    </row>
-    <row r="17" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="s">
+      <c r="AA16" s="13">
+        <f>+SUM(M16:P16)</f>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>105</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>108</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>116</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="13">
         <f>+Z17-SUM(I17:K17)</f>
         <v>131</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <v>129</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>139</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="13">
         <v>139</v>
       </c>
-      <c r="X17" s="14">
+      <c r="P17" s="13">
+        <v>154</v>
+      </c>
+      <c r="X17" s="13">
         <v>559</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Y17" s="13">
         <v>491</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="Z17" s="13">
         <v>460</v>
       </c>
-    </row>
-    <row r="18" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
+      <c r="AA17" s="13">
+        <f>+SUM(M17:P17)</f>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>2</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>-31</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>2</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="13">
         <f>+Z18-SUM(I18:K18)</f>
         <v>-3</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="13">
         <v>1</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="13">
         <v>1</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="13">
         <v>10</v>
       </c>
-      <c r="X18" s="14">
+      <c r="P18" s="13">
+        <v>13</v>
+      </c>
+      <c r="X18" s="13">
         <f>11+3</f>
         <v>14</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="Y18" s="13">
         <f>3+300+102</f>
         <v>405</v>
       </c>
-      <c r="Z18" s="14">
+      <c r="Z18" s="13">
         <v>-30</v>
       </c>
-    </row>
-    <row r="19" spans="2:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
+      <c r="AA18" s="13">
+        <f>+SUM(M18:P18)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="25">
-        <f t="shared" ref="I19:O19" si="4">I15-I16-I17-I18</f>
+      <c r="I19" s="24">
+        <f t="shared" ref="I19:P19" si="4">I15-I16-I17-I18</f>
         <v>-129</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="24">
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="24">
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="24">
         <f t="shared" si="4"/>
         <v>403</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="24">
         <f t="shared" si="4"/>
         <v>488</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="24">
         <f t="shared" si="4"/>
         <v>431</v>
       </c>
-      <c r="X19" s="25">
+      <c r="P19" s="24">
+        <f t="shared" si="4"/>
+        <v>568</v>
+      </c>
+      <c r="X19" s="24">
         <f t="shared" ref="X19:Y19" si="5">X15-X16-X17-X18</f>
         <v>1955</v>
       </c>
-      <c r="Y19" s="25">
+      <c r="Y19" s="24">
         <f t="shared" si="5"/>
         <v>-342</v>
       </c>
-      <c r="Z19" s="25">
+      <c r="Z19" s="24">
         <f>Z15-Z16-Z17-Z18</f>
         <v>452</v>
       </c>
-    </row>
-    <row r="20" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+      <c r="AA19" s="24">
+        <f>AA15-AA16-AA17-AA18</f>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>2</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>3</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>3</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <f>+Z20-SUM(I20:K20)</f>
         <v>7</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="13">
         <v>7</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <v>8</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <v>4</v>
       </c>
-      <c r="X20" s="14">
+      <c r="P20" s="13">
+        <v>6</v>
+      </c>
+      <c r="X20" s="13">
         <v>2</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="Y20" s="13">
         <v>10</v>
       </c>
-      <c r="Z20" s="14">
+      <c r="Z20" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
+      <c r="AA20" s="13">
+        <f>+SUM(M20:P20)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <v>84</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>84</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <v>82</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <f>+Z21-SUM(I21:K21)</f>
         <v>82</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="13">
         <v>85</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="13">
         <v>84</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="13">
         <v>77</v>
       </c>
-      <c r="X21" s="14">
+      <c r="P21" s="13">
+        <v>75</v>
+      </c>
+      <c r="X21" s="13">
         <v>249</v>
       </c>
-      <c r="Y21" s="14">
+      <c r="Y21" s="13">
         <v>313</v>
       </c>
-      <c r="Z21" s="14">
+      <c r="Z21" s="13">
         <v>332</v>
       </c>
-    </row>
-    <row r="22" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
+      <c r="AA21" s="13">
+        <f>+SUM(M21:P21)</f>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <v>104</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>0</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>0</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="13">
         <f>+Z22-SUM(I22:K22)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="13">
         <v>0</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="13">
         <v>0</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="13">
         <v>0</v>
       </c>
-      <c r="X22" s="14">
+      <c r="P22" s="13">
         <v>0</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="X22" s="13">
         <v>0</v>
       </c>
-      <c r="Z22" s="14">
+      <c r="Y22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="13">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+      <c r="AA22" s="13">
+        <f>+SUM(M22:P22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <v>29</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>0</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>0</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="13">
         <f>+Z23-SUM(I23:K23)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="13">
         <v>0</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="13">
         <v>0</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="13">
         <v>4</v>
       </c>
-      <c r="X23" s="14">
+      <c r="P23" s="13">
         <v>0</v>
       </c>
-      <c r="Y23" s="14">
+      <c r="X23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="13">
         <v>-190</v>
       </c>
-      <c r="Z23" s="14">
+      <c r="Z23" s="13">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+      <c r="AA23" s="13">
+        <f>+SUM(M23:P23)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <v>-11</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>-47</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <v>-6</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="13">
         <f>+Z24-SUM(I24:K24)</f>
         <v>299</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="13">
         <v>-9</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="13">
         <v>-62</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="13">
         <v>1</v>
       </c>
-      <c r="X24" s="14">
+      <c r="P24" s="13">
+        <f>-3-4</f>
+        <v>-7</v>
+      </c>
+      <c r="X24" s="13">
         <v>-29</v>
       </c>
-      <c r="Y24" s="14">
+      <c r="Y24" s="13">
         <v>-41</v>
       </c>
-      <c r="Z24" s="14">
+      <c r="Z24" s="13">
         <f>313-78</f>
         <v>235</v>
       </c>
-    </row>
-    <row r="25" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+      <c r="AA24" s="13">
+        <f>+SUM(M24:P24)</f>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="14">
-        <f t="shared" ref="I25:O25" si="6">I20-I21+I22-I23+I24</f>
+      <c r="I25" s="13">
+        <f t="shared" ref="I25:P25" si="6">I20-I21+I22-I23+I24</f>
         <v>-18</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="13">
         <f t="shared" si="6"/>
         <v>-128</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <f t="shared" si="6"/>
         <v>-85</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="13">
         <f t="shared" si="6"/>
         <v>224</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="13">
         <f t="shared" si="6"/>
         <v>-87</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="13">
         <f t="shared" si="6"/>
         <v>-138</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="13">
         <f t="shared" si="6"/>
         <v>-76</v>
       </c>
-      <c r="X25" s="14">
+      <c r="P25" s="13">
+        <f t="shared" si="6"/>
+        <v>-76</v>
+      </c>
+      <c r="X25" s="13">
         <f t="shared" ref="X25:Y25" si="7">X20-X21+X22-X23+X24</f>
         <v>-276</v>
       </c>
-      <c r="Y25" s="14">
+      <c r="Y25" s="13">
         <f t="shared" si="7"/>
         <v>-154</v>
       </c>
-      <c r="Z25" s="14">
+      <c r="Z25" s="13">
         <f>Z20-Z21+Z22-Z23+Z24</f>
         <v>-7</v>
       </c>
-    </row>
-    <row r="26" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
+      <c r="AA25" s="13">
+        <f>AA20-AA21+AA22-AA23+AA24</f>
+        <v>-377</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="14">
-        <f t="shared" ref="I26:O26" si="8">I19+I25</f>
+      <c r="I26" s="13">
+        <f t="shared" ref="I26:P26" si="8">I19+I25</f>
         <v>-147</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <f t="shared" si="8"/>
         <v>-4</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="13">
         <f t="shared" si="8"/>
         <v>538</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="13">
         <f t="shared" si="8"/>
         <v>316</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="13">
         <f t="shared" si="8"/>
         <v>350</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="13">
         <f t="shared" si="8"/>
         <v>355</v>
       </c>
-      <c r="X26" s="14">
+      <c r="P26" s="13">
+        <f t="shared" si="8"/>
+        <v>492</v>
+      </c>
+      <c r="X26" s="13">
         <f t="shared" ref="X26:Y26" si="9">X19+X25</f>
         <v>1679</v>
       </c>
-      <c r="Y26" s="14">
+      <c r="Y26" s="13">
         <f t="shared" si="9"/>
         <v>-496</v>
       </c>
-      <c r="Z26" s="14">
+      <c r="Z26" s="13">
         <f>Z19+Z25</f>
         <v>445</v>
       </c>
-    </row>
-    <row r="27" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
+      <c r="AA26" s="13">
+        <f>AA19+AA25</f>
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="13">
         <v>37</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="13">
         <v>15</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="13">
         <v>33</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="13">
         <f>+Z27-SUM(I27:K27)</f>
         <v>25</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="13">
         <v>11</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="13">
         <v>14</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="13">
         <v>15</v>
       </c>
-      <c r="X27" s="14">
+      <c r="P27" s="13">
+        <v>4</v>
+      </c>
+      <c r="X27" s="13">
         <v>30</v>
       </c>
-      <c r="Y27" s="14">
+      <c r="Y27" s="13">
         <v>33</v>
       </c>
-      <c r="Z27" s="14">
+      <c r="Z27" s="13">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="2:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
+      <c r="AA27" s="13">
+        <f>+SUM(M27:P27)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="25">
-        <f t="shared" ref="I28:O28" si="10">I26-I27</f>
+      <c r="I28" s="24">
+        <f t="shared" ref="I28:P28" si="10">I26-I27</f>
         <v>-184</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="24">
         <f t="shared" si="10"/>
         <v>-19</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="24">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="24">
         <f t="shared" si="10"/>
         <v>513</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="24">
         <f t="shared" si="10"/>
         <v>305</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N28" s="24">
         <f t="shared" si="10"/>
         <v>336</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="24">
         <f t="shared" si="10"/>
         <v>340</v>
       </c>
-      <c r="X28" s="25">
+      <c r="P28" s="24">
+        <f t="shared" si="10"/>
+        <v>488</v>
+      </c>
+      <c r="X28" s="24">
         <f t="shared" ref="X28:Y28" si="11">X26-X27</f>
         <v>1649</v>
       </c>
-      <c r="Y28" s="25">
+      <c r="Y28" s="24">
         <f t="shared" si="11"/>
         <v>-529</v>
       </c>
-      <c r="Z28" s="25">
+      <c r="Z28" s="24">
         <f>Z26-Z27</f>
         <v>335</v>
       </c>
-    </row>
-    <row r="29" spans="2:28" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="23" t="s">
+      <c r="AA28" s="24">
+        <f>AA26-AA27</f>
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="23">
-        <f t="shared" ref="I29:O29" si="12">I28/I30</f>
+      <c r="I29" s="22">
+        <f t="shared" ref="I29:P29" si="12">I28/I30</f>
         <v>-0.88461538461538458</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <f t="shared" si="12"/>
         <v>-9.0909090909090912E-2</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="22">
         <f t="shared" si="12"/>
         <v>0.11904761904761904</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="22">
         <f t="shared" si="12"/>
         <v>2.4545454545454546</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="22">
         <f t="shared" si="12"/>
         <v>1.4454976303317535</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="22">
         <f t="shared" si="12"/>
         <v>1.5849056603773586</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="22">
         <f t="shared" si="12"/>
         <v>1.6037735849056605</v>
       </c>
-      <c r="X29" s="23">
+      <c r="P29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.3018867924528301</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>2.33</v>
+      </c>
+      <c r="R29" s="22">
+        <v>2.56</v>
+      </c>
+      <c r="X29" s="22">
         <f>+X28/X30</f>
         <v>7.4954545454545451</v>
       </c>
-      <c r="Y29" s="23">
+      <c r="Y29" s="22">
         <f>+Y28/Y30</f>
         <v>-2.5555555555555554</v>
       </c>
-      <c r="Z29" s="23">
+      <c r="Z29" s="22">
         <f>+Z28/Z30</f>
         <v>1.6028708133971292</v>
       </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA29" s="22">
+        <f>+AA28/AA30</f>
+        <v>6.9292452830188678</v>
+      </c>
+      <c r="AB29" s="22">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AC29" s="22">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -2651,6 +2818,9 @@
       <c r="O30" s="1">
         <v>212</v>
       </c>
+      <c r="P30" s="1">
+        <v>212</v>
+      </c>
       <c r="X30" s="1">
         <v>220</v>
       </c>
@@ -2660,575 +2830,691 @@
       <c r="Z30" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="32" spans="2:28" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="28" t="s">
+      <c r="AA30" s="1">
+        <f>+P30</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="27">
         <f>M13/I13-1</f>
         <v>0.49105914718019261</v>
       </c>
-      <c r="N32" s="28">
+      <c r="N32" s="27">
         <f>N13/J13-1</f>
         <v>0.49517684887459801</v>
       </c>
-      <c r="O32" s="28">
+      <c r="O32" s="27">
         <f>O13/K13-1</f>
         <v>0.30513595166163143</v>
       </c>
-      <c r="P32" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="Q32" s="28">
+      <c r="P32" s="27">
+        <f>P13/L13-1</f>
+        <v>0.29517753047164819</v>
+      </c>
+      <c r="Q32" s="27">
         <v>0.25</v>
       </c>
-      <c r="R32" s="28">
+      <c r="R32" s="27">
         <v>0.25</v>
       </c>
-      <c r="Y32" s="28">
+      <c r="Y32" s="27">
         <f>Y13/X13-1</f>
         <v>-0.36677814938684505</v>
       </c>
-      <c r="Z32" s="28">
+      <c r="Z32" s="27">
         <f>Z13/Y13-1</f>
         <v>-0.11281148429035748</v>
       </c>
-      <c r="AA32" s="28">
+      <c r="AA32" s="27">
         <f>AA13/Z13-1</f>
-        <v>0.37475194626774533</v>
-      </c>
-      <c r="AB32" s="28">
+        <v>0.38864295527400405</v>
+      </c>
+      <c r="AB32" s="27">
         <f>AB13/AA13-1</f>
-        <v>0.12813679769042863</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="34" t="s">
+        <v>0.11685170935473232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="34">
         <f t="shared" ref="M33:O35" si="13">M5/I5-1</f>
         <v>0.69476744186046502</v>
       </c>
-      <c r="N33" s="35">
+      <c r="N33" s="34">
         <f t="shared" si="13"/>
         <v>0.61491228070175441</v>
       </c>
-      <c r="O33" s="35">
+      <c r="O33" s="34">
         <f t="shared" si="13"/>
         <v>0.38430420711974111</v>
       </c>
     </row>
-    <row r="34" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="34" t="s">
+    <row r="34" spans="2:27" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="M34" s="35">
+      <c r="M34" s="34">
         <f t="shared" si="13"/>
         <v>-6.7669172932330879E-2</v>
       </c>
-      <c r="N34" s="35">
+      <c r="N34" s="34">
         <f t="shared" si="13"/>
         <v>0.27522935779816504</v>
       </c>
-      <c r="O34" s="35">
+      <c r="O34" s="34">
         <f t="shared" si="13"/>
         <v>4.7619047619047672E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="34" t="s">
+    <row r="35" spans="2:27" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M35" s="34">
         <f t="shared" si="13"/>
         <v>9.6153846153846256E-2</v>
       </c>
-      <c r="N35" s="35">
+      <c r="N35" s="34">
         <f t="shared" si="13"/>
         <v>4.5685279187817285E-2</v>
       </c>
-      <c r="O35" s="35">
+      <c r="O35" s="34">
         <f t="shared" si="13"/>
         <v>0.10778443113772451</v>
       </c>
     </row>
-    <row r="36" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="34" t="s">
+    <row r="36" spans="2:27" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="M36" s="35">
+      <c r="M36" s="34">
         <f t="shared" ref="M36:O39" si="14">M9/I9-1</f>
         <v>6.4356435643564414E-2</v>
       </c>
-      <c r="N36" s="35">
+      <c r="N36" s="34">
         <f t="shared" si="14"/>
         <v>0.33419354838709681</v>
       </c>
-      <c r="O36" s="35">
+      <c r="O36" s="34">
         <f t="shared" si="14"/>
         <v>1.5587529976019088E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="34" t="s">
+    <row r="37" spans="2:27" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="M37" s="35">
+      <c r="M37" s="34">
         <f t="shared" si="14"/>
         <v>1.4109890109890109</v>
       </c>
-      <c r="N37" s="35">
+      <c r="N37" s="34">
         <f t="shared" si="14"/>
         <v>0.94669117647058831</v>
       </c>
-      <c r="O37" s="35">
+      <c r="O37" s="34">
         <f t="shared" si="14"/>
         <v>0.7637540453074434</v>
       </c>
     </row>
-    <row r="38" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="34" t="s">
+    <row r="38" spans="2:27" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="M38" s="35">
+      <c r="M38" s="34">
         <f t="shared" si="14"/>
         <v>0.11702127659574457</v>
       </c>
-      <c r="N38" s="35">
+      <c r="N38" s="34">
         <f t="shared" si="14"/>
         <v>-1.2820512820512775E-2</v>
       </c>
-      <c r="O38" s="35">
+      <c r="O38" s="34">
         <f t="shared" si="14"/>
         <v>0.1100000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:26" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="34" t="s">
+    <row r="39" spans="2:27" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="M39" s="35">
+      <c r="M39" s="34">
         <f t="shared" si="14"/>
         <v>-0.66666666666666674</v>
       </c>
-      <c r="N39" s="35">
+      <c r="N39" s="34">
         <f t="shared" si="14"/>
         <v>-0.5</v>
       </c>
-      <c r="O39" s="35">
+      <c r="O39" s="34">
         <f t="shared" si="14"/>
         <v>-0.66666666666666674</v>
       </c>
     </row>
-    <row r="40" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="24" t="s">
+    <row r="40" spans="2:27" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J40" s="24">
-        <f t="shared" ref="J40:O40" si="15">J13/I13-1</f>
+      <c r="J40" s="23">
+        <f t="shared" ref="J40:P40" si="15">J13/I13-1</f>
         <v>6.9463548830811517E-2</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="23">
         <f t="shared" si="15"/>
         <v>6.4308681672025747E-2</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="23">
         <f t="shared" si="15"/>
         <v>0.1401812688821753</v>
       </c>
-      <c r="M40" s="24">
+      <c r="M40" s="23">
         <f t="shared" si="15"/>
         <v>0.14891361950185478</v>
       </c>
-      <c r="N40" s="24">
+      <c r="N40" s="23">
         <f t="shared" si="15"/>
         <v>7.2416974169741799E-2</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O40" s="23">
         <f t="shared" si="15"/>
         <v>-7.096774193548383E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="24" t="s">
+      <c r="P40" s="23">
+        <f t="shared" si="15"/>
+        <v>0.13148148148148153</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="23">
         <f t="shared" ref="I42:O42" si="16">I15/I13</f>
         <v>0.10247592847317744</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="23">
         <f t="shared" si="16"/>
         <v>0.23279742765273312</v>
       </c>
-      <c r="K42" s="24">
+      <c r="K42" s="23">
         <f t="shared" si="16"/>
         <v>0.25679758308157102</v>
       </c>
-      <c r="L42" s="24">
+      <c r="L42" s="23">
         <f t="shared" si="16"/>
         <v>0.31796502384737679</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="23">
         <f t="shared" si="16"/>
         <v>0.32933579335793356</v>
       </c>
-      <c r="N42" s="24">
+      <c r="N42" s="23">
         <f t="shared" si="16"/>
         <v>0.34924731182795699</v>
       </c>
-      <c r="O42" s="24">
+      <c r="O42" s="23">
         <f t="shared" si="16"/>
         <v>0.35185185185185186</v>
       </c>
-      <c r="X42" s="24">
+      <c r="P42" s="23">
+        <f t="shared" ref="P42" si="17">P15/P13</f>
+        <v>0.3739770867430442</v>
+      </c>
+      <c r="X42" s="23">
         <f>X15/X13</f>
         <v>0.29748735099905671</v>
       </c>
-      <c r="Y42" s="24">
+      <c r="Y42" s="23">
         <f>Y15/Y13</f>
         <v>0.1829631635969664</v>
       </c>
-      <c r="Z42" s="24">
+      <c r="Z42" s="23">
         <f>Z15/Z13</f>
         <v>0.23446802014959547</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="24" t="s">
+      <c r="AA42" s="23">
+        <f>AA15/AA13</f>
+        <v>0.3517643179070023</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I43" s="24">
-        <f t="shared" ref="I43:O43" si="17">I19/I13</f>
+      <c r="I43" s="23">
+        <f t="shared" ref="I43:O43" si="18">I19/I13</f>
         <v>-8.8720770288858317E-2</v>
       </c>
-      <c r="J43" s="24">
-        <f t="shared" si="17"/>
+      <c r="J43" s="23">
+        <f t="shared" si="18"/>
         <v>7.9742765273311894E-2</v>
       </c>
-      <c r="K43" s="24">
-        <f t="shared" si="17"/>
+      <c r="K43" s="23">
+        <f t="shared" si="18"/>
         <v>8.6404833836858E-2</v>
       </c>
-      <c r="L43" s="24">
-        <f t="shared" si="17"/>
+      <c r="L43" s="23">
+        <f t="shared" si="18"/>
         <v>0.16640169581346051</v>
       </c>
-      <c r="M43" s="24">
-        <f t="shared" si="17"/>
+      <c r="M43" s="23">
+        <f t="shared" si="18"/>
         <v>0.18588560885608857</v>
       </c>
-      <c r="N43" s="24">
-        <f t="shared" si="17"/>
+      <c r="N43" s="23">
+        <f t="shared" si="18"/>
         <v>0.20989247311827958</v>
       </c>
-      <c r="O43" s="24">
-        <f t="shared" si="17"/>
+      <c r="O43" s="23">
+        <f t="shared" si="18"/>
         <v>0.19953703703703704</v>
       </c>
-      <c r="X43" s="24">
+      <c r="P43" s="23">
+        <f t="shared" ref="P43" si="19">P19/P13</f>
+        <v>0.23240589198036007</v>
+      </c>
+      <c r="X43" s="23">
         <f>X19/X13</f>
         <v>0.16765285996055226</v>
       </c>
-      <c r="Y43" s="24">
+      <c r="Y43" s="23">
         <f>Y19/Y13</f>
         <v>-4.6316359696641385E-2</v>
       </c>
-      <c r="Z43" s="24">
+      <c r="Z43" s="23">
         <f>Z19/Z13</f>
         <v>6.8997099679438248E-2</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="24" t="s">
+      <c r="AA43" s="23">
+        <f>AA19/AA13</f>
+        <v>0.20776080026382324</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I44" s="24">
-        <f t="shared" ref="I44:O44" si="18">I28/I13</f>
+      <c r="I44" s="23">
+        <f t="shared" ref="I44:O44" si="20">I28/I13</f>
         <v>-0.12654745529573591</v>
       </c>
-      <c r="J44" s="24">
-        <f t="shared" si="18"/>
+      <c r="J44" s="23">
+        <f t="shared" si="20"/>
         <v>-1.2218649517684888E-2</v>
       </c>
-      <c r="K44" s="24">
-        <f t="shared" si="18"/>
+      <c r="K44" s="23">
+        <f t="shared" si="20"/>
         <v>1.5105740181268883E-2</v>
       </c>
-      <c r="L44" s="24">
-        <f t="shared" si="18"/>
+      <c r="L44" s="23">
+        <f t="shared" si="20"/>
         <v>0.27186009538950717</v>
       </c>
-      <c r="M44" s="24">
-        <f t="shared" si="18"/>
+      <c r="M44" s="23">
+        <f t="shared" si="20"/>
         <v>0.14068265682656828</v>
       </c>
-      <c r="N44" s="24">
-        <f t="shared" si="18"/>
+      <c r="N44" s="23">
+        <f t="shared" si="20"/>
         <v>0.14451612903225808</v>
       </c>
-      <c r="O44" s="24">
-        <f t="shared" si="18"/>
+      <c r="O44" s="23">
+        <f t="shared" si="20"/>
         <v>0.15740740740740741</v>
       </c>
-      <c r="X44" s="24">
+      <c r="P44" s="23">
+        <f t="shared" ref="P44" si="21">P28/P13</f>
+        <v>0.19967266775777415</v>
+      </c>
+      <c r="X44" s="23">
         <f>X28/X13</f>
         <v>0.1414115427493354</v>
       </c>
-      <c r="Y44" s="24">
+      <c r="Y44" s="23">
         <f>Y28/Y13</f>
         <v>-7.164138678223185E-2</v>
       </c>
-      <c r="Z44" s="24">
+      <c r="Z44" s="23">
         <f>Z28/Z13</f>
         <v>5.1137230957105782E-2</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="24" t="s">
+      <c r="AA44" s="23">
+        <f>AA28/AA13</f>
+        <v>0.16148180718918326</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="24">
-        <f t="shared" ref="I45:O45" si="19">I27/I26</f>
+      <c r="I45" s="23">
+        <f t="shared" ref="I45:O45" si="22">I27/I26</f>
         <v>-0.25170068027210885</v>
       </c>
-      <c r="J45" s="24">
-        <f t="shared" si="19"/>
+      <c r="J45" s="23">
+        <f t="shared" si="22"/>
         <v>-3.75</v>
       </c>
-      <c r="K45" s="24">
-        <f t="shared" si="19"/>
+      <c r="K45" s="23">
+        <f t="shared" si="22"/>
         <v>0.56896551724137934</v>
       </c>
-      <c r="L45" s="24">
-        <f t="shared" si="19"/>
+      <c r="L45" s="23">
+        <f t="shared" si="22"/>
         <v>4.6468401486988845E-2</v>
       </c>
-      <c r="M45" s="24">
-        <f t="shared" si="19"/>
+      <c r="M45" s="23">
+        <f t="shared" si="22"/>
         <v>3.4810126582278479E-2</v>
       </c>
-      <c r="N45" s="24">
-        <f t="shared" si="19"/>
+      <c r="N45" s="23">
+        <f t="shared" si="22"/>
         <v>0.04</v>
       </c>
-      <c r="O45" s="24">
-        <f t="shared" si="19"/>
+      <c r="O45" s="23">
+        <f t="shared" si="22"/>
         <v>4.2253521126760563E-2</v>
       </c>
-      <c r="X45" s="24">
+      <c r="P45" s="23">
+        <f t="shared" ref="P45" si="23">P27/P26</f>
+        <v>8.130081300813009E-3</v>
+      </c>
+      <c r="X45" s="23">
         <f>X27/X26</f>
         <v>1.7867778439547351E-2</v>
       </c>
-      <c r="Y45" s="24">
+      <c r="Y45" s="23">
         <f>Y27/Y26</f>
         <v>-6.6532258064516125E-2</v>
       </c>
-      <c r="Z45" s="24">
+      <c r="Z45" s="23">
         <f>Z27/Z26</f>
         <v>0.24719101123595505</v>
       </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="29" t="s">
+      <c r="AA45" s="23">
+        <f>AA27/AA26</f>
+        <v>2.9081295439524125E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B49" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="25" t="s">
+    <row r="50" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O50" s="25">
+      <c r="O50" s="24">
         <v>814</v>
       </c>
-    </row>
-    <row r="51" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="14" t="s">
+      <c r="P50" s="24">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O51" s="13">
         <v>622</v>
       </c>
-    </row>
-    <row r="52" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="14" t="s">
+      <c r="P51" s="13">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O52" s="13">
         <v>1472</v>
       </c>
-    </row>
-    <row r="53" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="14" t="s">
+      <c r="P52" s="13">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O53" s="14">
+      <c r="O53" s="13">
         <v>374</v>
       </c>
-    </row>
-    <row r="54" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="14" t="s">
+      <c r="P53" s="13">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O54" s="14">
+      <c r="O54" s="13">
         <f>SUM(O50:O53)</f>
         <v>3282</v>
       </c>
-    </row>
-    <row r="55" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="14" t="s">
+      <c r="P54" s="13">
+        <f>SUM(P50:P53)</f>
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O55" s="14">
+      <c r="O55" s="13">
         <v>1613</v>
       </c>
-    </row>
-    <row r="56" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="14" t="s">
+      <c r="P55" s="13">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O56" s="14">
+      <c r="O56" s="13">
         <v>1219</v>
       </c>
-    </row>
-    <row r="57" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="14" t="s">
+      <c r="P56" s="13">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O57" s="14">
+      <c r="O57" s="13">
         <v>1026</v>
       </c>
-    </row>
-    <row r="58" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="14" t="s">
+      <c r="P57" s="13">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O58" s="14">
+      <c r="O58" s="13">
         <v>424</v>
       </c>
-    </row>
-    <row r="59" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="14" t="s">
+      <c r="P58" s="13">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O59" s="13">
         <f>SUM(O54:O58)</f>
         <v>7564</v>
       </c>
-    </row>
-    <row r="60" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="14" t="s">
+      <c r="P59" s="13">
+        <f>SUM(P54:P58)</f>
+        <v>8023</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O61" s="13">
         <v>1467</v>
       </c>
-    </row>
-    <row r="62" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="14" t="s">
+      <c r="P61" s="13">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O62" s="13">
         <v>242</v>
       </c>
-    </row>
-    <row r="63" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="14" t="s">
+      <c r="P62" s="13">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="O63" s="14">
+      <c r="O63" s="13">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="2:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="25" t="s">
+      <c r="P63" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O64" s="25">
+      <c r="O64" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="14" t="s">
+      <c r="P64" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="O65" s="14">
+      <c r="O65" s="13">
         <v>642</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="14" t="s">
+      <c r="P65" s="13">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="O66" s="14">
+      <c r="O66" s="13">
         <f>SUM(O61:O65)</f>
         <v>2412</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="25" t="s">
+      <c r="P66" s="13">
+        <f>SUM(P61:P65)</f>
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="O67" s="25">
+      <c r="O67" s="24">
         <v>73</v>
       </c>
-    </row>
-    <row r="68" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="14" t="s">
+      <c r="P67" s="24">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="O68" s="14">
+      <c r="O68" s="13">
         <v>762</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="25" t="s">
+      <c r="P68" s="13">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="O69" s="25">
+      <c r="O69" s="24">
         <v>5146</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="14" t="s">
+      <c r="P69" s="24">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O70" s="14">
+      <c r="O70" s="13">
         <f>SUM(O66:O69)</f>
         <v>8393</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="14" t="s">
+      <c r="P70" s="13">
+        <f>SUM(P66:P69)</f>
+        <v>8476</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O72" s="14">
+      <c r="O72" s="13">
         <v>-829</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="14" t="s">
+      <c r="P72" s="13">
+        <v>-453</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="O73" s="14">
+      <c r="O73" s="13">
         <f>O72+O70</f>
         <v>7564</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="13">
+        <f>P72+P70</f>
+        <v>8023</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O75" s="14">
+      <c r="O75" s="13">
         <f>O59-O70</f>
         <v>-829</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="13">
+        <f>P59-P70</f>
+        <v>-453</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>78</v>
       </c>
@@ -3236,139 +3522,182 @@
         <f>O75/O30</f>
         <v>-3.9103773584905661</v>
       </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="1">
+        <f>P75/P30</f>
+        <v>-2.1367924528301887</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O78" s="14">
+      <c r="O78" s="13">
         <f>O50</f>
         <v>814</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P78" s="13">
+        <f>P50</f>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O79" s="14">
+      <c r="O79" s="13">
         <f>O64+O67+O69</f>
         <v>5219</v>
       </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P79" s="13">
+        <f>P64+P67+P69</f>
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O80" s="14">
+      <c r="O80" s="13">
         <f>O78-O79</f>
         <v>-4405</v>
       </c>
-    </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B84" s="29" t="s">
+      <c r="P80" s="13">
+        <f>P78-P79</f>
+        <v>-4181</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B84" s="28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="14" t="s">
+    <row r="85" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="K85" s="14">
+      <c r="K85" s="13">
         <v>484</v>
       </c>
-      <c r="O85" s="14">
+      <c r="M85" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O85" s="52">
         <v>575</v>
       </c>
-      <c r="X85" s="14">
+      <c r="P85" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X85" s="13">
         <v>1657</v>
       </c>
-      <c r="Y85" s="14">
+      <c r="Y85" s="13">
         <v>942</v>
       </c>
-      <c r="Z85" s="14">
+      <c r="Z85" s="13">
         <v>918</v>
       </c>
-    </row>
-    <row r="86" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="14" t="s">
+      <c r="AA85" s="13">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="86" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K86" s="13">
         <v>200</v>
       </c>
-      <c r="O86" s="14">
+      <c r="O86" s="52">
         <v>182</v>
       </c>
-      <c r="X86" s="14">
+      <c r="X86" s="13">
         <v>381</v>
       </c>
-      <c r="Y86" s="14">
+      <c r="Y86" s="13">
         <v>316</v>
       </c>
-      <c r="Z86" s="14">
+      <c r="Z86" s="13">
         <v>254</v>
       </c>
-    </row>
-    <row r="87" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="14" t="s">
+      <c r="AA86" s="13">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="K87" s="14">
+      <c r="K87" s="13">
         <f>+K85-K86</f>
         <v>284</v>
       </c>
-      <c r="O87" s="14">
+      <c r="O87" s="52">
         <f>+O85-O86</f>
         <v>393</v>
       </c>
-      <c r="X87" s="14">
-        <f t="shared" ref="X87:Z87" si="20">+X85-X86</f>
+      <c r="X87" s="13">
+        <f t="shared" ref="X87:AA87" si="24">+X85-X86</f>
         <v>1276</v>
       </c>
-      <c r="Y87" s="14">
-        <f t="shared" si="20"/>
+      <c r="Y87" s="13">
+        <f t="shared" si="24"/>
         <v>626</v>
       </c>
-      <c r="Z87" s="14">
-        <f t="shared" si="20"/>
+      <c r="Z87" s="13">
+        <f t="shared" si="24"/>
         <v>664</v>
       </c>
-    </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="13">
+        <f t="shared" si="24"/>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="X89" s="14">
+      <c r="X89" s="13">
         <f>X87</f>
         <v>1276</v>
       </c>
-      <c r="Y89" s="14">
+      <c r="Y89" s="13">
         <f>Y87</f>
         <v>626</v>
       </c>
-      <c r="Z89" s="14">
+      <c r="Z89" s="13">
         <f>Z87</f>
         <v>664</v>
       </c>
-    </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
+      <c r="AA89" s="13">
+        <f>AA87</f>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="X90" s="1">
+      <c r="X90" s="47">
         <f>X89/X30</f>
         <v>5.8</v>
       </c>
-      <c r="Y90" s="1">
+      <c r="Y90" s="47">
         <f>Y89/Y30</f>
         <v>3.0241545893719808</v>
       </c>
-      <c r="Z90" s="1">
+      <c r="Z90" s="47">
         <f>Z89/Z30</f>
         <v>3.1770334928229667</v>
       </c>
-    </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="47">
+        <f>AA89/AA30</f>
+        <v>3.858490566037736</v>
+      </c>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>123</v>
       </c>
@@ -3380,13 +3709,14 @@
     <hyperlink ref="N1" r:id="rId2" display="Q424" xr:uid="{48A837BF-C9B1-4D77-9836-7B9F12505BE7}"/>
     <hyperlink ref="L1" r:id="rId3" xr:uid="{5E90ACED-FF91-4211-8BDA-8A4C9AA29D20}"/>
     <hyperlink ref="Z1" r:id="rId4" xr:uid="{AE1C6B43-A977-4DC5-B5D3-AFAAB5F8AA44}"/>
+    <hyperlink ref="P1" r:id="rId5" xr:uid="{D0C977D0-9973-4C79-BA72-424EC9451109}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <ignoredErrors>
     <ignoredError sqref="M8:O8 I8:K8 X8:Z8" formulaRange="1"/>
-    <ignoredError sqref="L15:L30" formula="1"/>
+    <ignoredError sqref="L15:L30 AA15:AA28" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/$STX.xlsx
+++ b/$STX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C1E774-0C69-4280-A7B8-DEFF043989D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C34407-888D-46F9-BD10-BBA1AD1E434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47E727E2-A9A8-4982-8579-220A7F2C2C9D}"/>
   </bookViews>
@@ -20,6 +20,20 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -613,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -684,6 +698,21 @@
     <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,36 +722,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -854,14 +869,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -878,7 +893,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10096500" y="0"/>
+          <a:off x="10696575" y="0"/>
           <a:ext cx="0" cy="15363825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -906,9 +921,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -946,7 +961,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1052,7 +1067,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1194,7 +1209,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1205,7 +1220,7 @@
   <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D35"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1224,19 +1239,19 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="G5" s="36" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="G5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1263,12 +1278,8 @@
       <c r="D7" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="35">
-        <v>45778</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1353,8 +1364,12 @@
         <v>36286.58994089</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="35">
+        <v>45778</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1377,11 +1392,11 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
       <c r="G15" s="12"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1393,70 +1408,70 @@
       <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
@@ -1473,22 +1488,22 @@
       <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
@@ -1504,28 +1519,33 @@
       <c r="B36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="41">
         <f>+C6/'Financial Model'!AA29</f>
         <v>21.833546630360789</v>
       </c>
-      <c r="D37" s="51"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1542,11 +1562,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1558,10 +1573,10 @@
   <dimension ref="B1:AF91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K65" sqref="K65"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1614,7 +1629,7 @@
       <c r="P1" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="26" t="s">
         <v>124</v>
       </c>
       <c r="R1" s="18" t="s">
@@ -1692,6 +1707,9 @@
       <c r="P2" s="25">
         <v>45835</v>
       </c>
+      <c r="Q2" s="25">
+        <v>45933</v>
+      </c>
       <c r="X2" s="25">
         <v>44743</v>
       </c>
@@ -1723,6 +1741,9 @@
       <c r="P3" s="21">
         <v>47300</v>
       </c>
+      <c r="Q3" s="21">
+        <v>47027</v>
+      </c>
       <c r="Z3" s="21">
         <v>37469</v>
       </c>
@@ -2004,12 +2025,11 @@
         <v>2444</v>
       </c>
       <c r="Q13" s="24">
-        <f>P13*(1+Q32)</f>
-        <v>3055</v>
+        <v>2629</v>
       </c>
       <c r="R13" s="24">
         <f>Q13*(1+R32)</f>
-        <v>3818.75</v>
+        <v>3233.67</v>
       </c>
       <c r="X13" s="24">
         <v>11661</v>
@@ -2057,6 +2077,9 @@
       <c r="P14" s="13">
         <v>1530</v>
       </c>
+      <c r="Q14" s="13">
+        <v>1592</v>
+      </c>
       <c r="X14" s="13">
         <v>8192</v>
       </c>
@@ -2076,7 +2099,7 @@
         <v>30</v>
       </c>
       <c r="I15" s="24">
-        <f t="shared" ref="I15:P15" si="2">I13-I14</f>
+        <f t="shared" ref="I15:Q15" si="2">I13-I14</f>
         <v>149</v>
       </c>
       <c r="J15" s="24">
@@ -2107,6 +2130,10 @@
         <f t="shared" si="2"/>
         <v>914</v>
       </c>
+      <c r="Q15" s="24">
+        <f t="shared" si="2"/>
+        <v>1037</v>
+      </c>
       <c r="X15" s="24">
         <f t="shared" ref="X15:Y15" si="3">X13-X14</f>
         <v>3469</v>
@@ -2153,6 +2180,9 @@
       <c r="P16" s="13">
         <v>179</v>
       </c>
+      <c r="Q16" s="13">
+        <v>186</v>
+      </c>
       <c r="X16" s="13">
         <v>941</v>
       </c>
@@ -2196,6 +2226,9 @@
       <c r="P17" s="13">
         <v>154</v>
       </c>
+      <c r="Q17" s="13">
+        <v>144</v>
+      </c>
       <c r="X17" s="13">
         <v>559</v>
       </c>
@@ -2239,6 +2272,9 @@
       <c r="P18" s="13">
         <v>13</v>
       </c>
+      <c r="Q18" s="13">
+        <v>13</v>
+      </c>
       <c r="X18" s="13">
         <f>11+3</f>
         <v>14</v>
@@ -2291,12 +2327,16 @@
         <f t="shared" si="4"/>
         <v>568</v>
       </c>
+      <c r="Q19" s="24">
+        <f t="shared" ref="Q19" si="5">Q15-Q16-Q17-Q18</f>
+        <v>694</v>
+      </c>
       <c r="X19" s="24">
-        <f t="shared" ref="X19:Y19" si="5">X15-X16-X17-X18</f>
+        <f t="shared" ref="X19:Y19" si="6">X15-X16-X17-X18</f>
         <v>1955</v>
       </c>
       <c r="Y19" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-342</v>
       </c>
       <c r="Z19" s="24">
@@ -2337,6 +2377,9 @@
       <c r="P20" s="13">
         <v>6</v>
       </c>
+      <c r="Q20" s="13">
+        <v>7</v>
+      </c>
       <c r="X20" s="13">
         <v>2</v>
       </c>
@@ -2380,6 +2423,9 @@
       <c r="P21" s="13">
         <v>75</v>
       </c>
+      <c r="Q21" s="13">
+        <v>80</v>
+      </c>
       <c r="X21" s="13">
         <v>249</v>
       </c>
@@ -2423,6 +2469,9 @@
       <c r="P22" s="13">
         <v>0</v>
       </c>
+      <c r="Q22" s="13">
+        <v>0</v>
+      </c>
       <c r="X22" s="13">
         <v>0</v>
       </c>
@@ -2466,6 +2515,9 @@
       <c r="P23" s="13">
         <v>0</v>
       </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
       <c r="X23" s="13">
         <v>0</v>
       </c>
@@ -2510,6 +2562,10 @@
         <f>-3-4</f>
         <v>-7</v>
       </c>
+      <c r="Q24" s="13">
+        <f t="shared" ref="Q24" si="7">-3-4</f>
+        <v>-7</v>
+      </c>
       <c r="X24" s="13">
         <v>-29</v>
       </c>
@@ -2530,43 +2586,47 @@
         <v>40</v>
       </c>
       <c r="I25" s="13">
-        <f t="shared" ref="I25:P25" si="6">I20-I21+I22-I23+I24</f>
+        <f t="shared" ref="I25:P25" si="8">I20-I21+I22-I23+I24</f>
         <v>-18</v>
       </c>
       <c r="J25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-128</v>
       </c>
       <c r="K25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-85</v>
       </c>
       <c r="L25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>224</v>
       </c>
       <c r="M25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-87</v>
       </c>
       <c r="N25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-138</v>
       </c>
       <c r="O25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-76</v>
       </c>
       <c r="P25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-76</v>
       </c>
+      <c r="Q25" s="13">
+        <f t="shared" ref="Q25" si="9">Q20-Q21+Q22-Q23+Q24</f>
+        <v>-80</v>
+      </c>
       <c r="X25" s="13">
-        <f t="shared" ref="X25:Y25" si="7">X20-X21+X22-X23+X24</f>
+        <f t="shared" ref="X25:Y25" si="10">X20-X21+X22-X23+X24</f>
         <v>-276</v>
       </c>
       <c r="Y25" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-154</v>
       </c>
       <c r="Z25" s="13">
@@ -2583,43 +2643,47 @@
         <v>41</v>
       </c>
       <c r="I26" s="13">
-        <f t="shared" ref="I26:P26" si="8">I19+I25</f>
+        <f t="shared" ref="I26:P26" si="11">I19+I25</f>
         <v>-147</v>
       </c>
       <c r="J26" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-4</v>
       </c>
       <c r="K26" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>58</v>
       </c>
       <c r="L26" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>538</v>
       </c>
       <c r="M26" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>316</v>
       </c>
       <c r="N26" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>350</v>
       </c>
       <c r="O26" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>355</v>
       </c>
       <c r="P26" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>492</v>
       </c>
+      <c r="Q26" s="13">
+        <f t="shared" ref="Q26" si="12">Q19+Q25</f>
+        <v>614</v>
+      </c>
       <c r="X26" s="13">
-        <f t="shared" ref="X26:Y26" si="9">X19+X25</f>
+        <f t="shared" ref="X26:Y26" si="13">X19+X25</f>
         <v>1679</v>
       </c>
       <c r="Y26" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-496</v>
       </c>
       <c r="Z26" s="13">
@@ -2660,6 +2724,9 @@
       <c r="P27" s="13">
         <v>4</v>
       </c>
+      <c r="Q27" s="13">
+        <v>65</v>
+      </c>
       <c r="X27" s="13">
         <v>30</v>
       </c>
@@ -2679,43 +2746,47 @@
         <v>43</v>
       </c>
       <c r="I28" s="24">
-        <f t="shared" ref="I28:P28" si="10">I26-I27</f>
+        <f t="shared" ref="I28:P28" si="14">I26-I27</f>
         <v>-184</v>
       </c>
       <c r="J28" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-19</v>
       </c>
       <c r="K28" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="L28" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>513</v>
       </c>
       <c r="M28" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>305</v>
       </c>
       <c r="N28" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>336</v>
       </c>
       <c r="O28" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>340</v>
       </c>
       <c r="P28" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>488</v>
       </c>
+      <c r="Q28" s="24">
+        <f t="shared" ref="Q28" si="15">Q26-Q27</f>
+        <v>549</v>
+      </c>
       <c r="X28" s="24">
-        <f t="shared" ref="X28:Y28" si="11">X26-X27</f>
+        <f t="shared" ref="X28:Y28" si="16">X26-X27</f>
         <v>1649</v>
       </c>
       <c r="Y28" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-529</v>
       </c>
       <c r="Z28" s="24">
@@ -2732,39 +2803,40 @@
         <v>44</v>
       </c>
       <c r="I29" s="22">
-        <f t="shared" ref="I29:P29" si="12">I28/I30</f>
+        <f t="shared" ref="I29:Q29" si="17">I28/I30</f>
         <v>-0.88461538461538458</v>
       </c>
       <c r="J29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-9.0909090909090912E-2</v>
       </c>
       <c r="K29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2.4545454545454546</v>
       </c>
       <c r="M29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.4454976303317535</v>
       </c>
       <c r="N29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.5849056603773586</v>
       </c>
       <c r="O29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.6037735849056605</v>
       </c>
       <c r="P29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2.3018867924528301</v>
       </c>
       <c r="Q29" s="22">
-        <v>2.33</v>
+        <f t="shared" si="17"/>
+        <v>2.4292035398230087</v>
       </c>
       <c r="R29" s="22">
         <v>2.56</v>
@@ -2821,6 +2893,9 @@
       <c r="P30" s="1">
         <v>212</v>
       </c>
+      <c r="Q30" s="1">
+        <v>226</v>
+      </c>
       <c r="X30" s="1">
         <v>220</v>
       </c>
@@ -2856,10 +2931,11 @@
         <v>0.29517753047164819</v>
       </c>
       <c r="Q32" s="27">
-        <v>0.25</v>
+        <f>Q13/M13-1</f>
+        <v>0.21263837638376382</v>
       </c>
       <c r="R32" s="27">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="Y32" s="27">
         <f>Y13/X13-1</f>
@@ -2883,15 +2959,15 @@
         <v>106</v>
       </c>
       <c r="M33" s="34">
-        <f t="shared" ref="M33:O35" si="13">M5/I5-1</f>
+        <f t="shared" ref="M33:O35" si="18">M5/I5-1</f>
         <v>0.69476744186046502</v>
       </c>
       <c r="N33" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.61491228070175441</v>
       </c>
       <c r="O33" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.38430420711974111</v>
       </c>
     </row>
@@ -2900,15 +2976,15 @@
         <v>107</v>
       </c>
       <c r="M34" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-6.7669172932330879E-2</v>
       </c>
       <c r="N34" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.27522935779816504</v>
       </c>
       <c r="O34" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.7619047619047672E-2</v>
       </c>
     </row>
@@ -2917,15 +2993,15 @@
         <v>108</v>
       </c>
       <c r="M35" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9.6153846153846256E-2</v>
       </c>
       <c r="N35" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.5685279187817285E-2</v>
       </c>
       <c r="O35" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.10778443113772451</v>
       </c>
     </row>
@@ -2934,15 +3010,15 @@
         <v>109</v>
       </c>
       <c r="M36" s="34">
-        <f t="shared" ref="M36:O39" si="14">M9/I9-1</f>
+        <f t="shared" ref="M36:O39" si="19">M9/I9-1</f>
         <v>6.4356435643564414E-2</v>
       </c>
       <c r="N36" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.33419354838709681</v>
       </c>
       <c r="O36" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.5587529976019088E-2</v>
       </c>
     </row>
@@ -2951,15 +3027,15 @@
         <v>110</v>
       </c>
       <c r="M37" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.4109890109890109</v>
       </c>
       <c r="N37" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.94669117647058831</v>
       </c>
       <c r="O37" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.7637540453074434</v>
       </c>
     </row>
@@ -2968,15 +3044,15 @@
         <v>111</v>
       </c>
       <c r="M38" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.11702127659574457</v>
       </c>
       <c r="N38" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-1.2820512820512775E-2</v>
       </c>
       <c r="O38" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.1100000000000001</v>
       </c>
     </row>
@@ -2985,15 +3061,15 @@
         <v>112</v>
       </c>
       <c r="M39" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-0.66666666666666674</v>
       </c>
       <c r="N39" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-0.5</v>
       </c>
       <c r="O39" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-0.66666666666666674</v>
       </c>
     </row>
@@ -3002,32 +3078,36 @@
         <v>46</v>
       </c>
       <c r="J40" s="23">
-        <f t="shared" ref="J40:P40" si="15">J13/I13-1</f>
+        <f t="shared" ref="J40:Q40" si="20">J13/I13-1</f>
         <v>6.9463548830811517E-2</v>
       </c>
       <c r="K40" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.4308681672025747E-2</v>
       </c>
       <c r="L40" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.1401812688821753</v>
       </c>
       <c r="M40" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.14891361950185478</v>
       </c>
       <c r="N40" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>7.2416974169741799E-2</v>
       </c>
       <c r="O40" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-7.096774193548383E-2</v>
       </c>
       <c r="P40" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.13148148148148153</v>
+      </c>
+      <c r="Q40" s="23">
+        <f t="shared" si="20"/>
+        <v>7.5695581014729951E-2</v>
       </c>
     </row>
     <row r="42" spans="2:27" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -3035,36 +3115,40 @@
         <v>47</v>
       </c>
       <c r="I42" s="23">
-        <f t="shared" ref="I42:O42" si="16">I15/I13</f>
+        <f t="shared" ref="I42:O42" si="21">I15/I13</f>
         <v>0.10247592847317744</v>
       </c>
       <c r="J42" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.23279742765273312</v>
       </c>
       <c r="K42" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.25679758308157102</v>
       </c>
       <c r="L42" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.31796502384737679</v>
       </c>
       <c r="M42" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.32933579335793356</v>
       </c>
       <c r="N42" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.34924731182795699</v>
       </c>
       <c r="O42" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.35185185185185186</v>
       </c>
       <c r="P42" s="23">
-        <f t="shared" ref="P42" si="17">P15/P13</f>
+        <f t="shared" ref="P42:Q42" si="22">P15/P13</f>
         <v>0.3739770867430442</v>
+      </c>
+      <c r="Q42" s="23">
+        <f t="shared" si="22"/>
+        <v>0.39444655762647396</v>
       </c>
       <c r="X42" s="23">
         <f>X15/X13</f>
@@ -3088,36 +3172,40 @@
         <v>48</v>
       </c>
       <c r="I43" s="23">
-        <f t="shared" ref="I43:O43" si="18">I19/I13</f>
+        <f t="shared" ref="I43:O43" si="23">I19/I13</f>
         <v>-8.8720770288858317E-2</v>
       </c>
       <c r="J43" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>7.9742765273311894E-2</v>
       </c>
       <c r="K43" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>8.6404833836858E-2</v>
       </c>
       <c r="L43" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.16640169581346051</v>
       </c>
       <c r="M43" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.18588560885608857</v>
       </c>
       <c r="N43" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.20989247311827958</v>
       </c>
       <c r="O43" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.19953703703703704</v>
       </c>
       <c r="P43" s="23">
-        <f t="shared" ref="P43" si="19">P19/P13</f>
+        <f t="shared" ref="P43:Q43" si="24">P19/P13</f>
         <v>0.23240589198036007</v>
+      </c>
+      <c r="Q43" s="23">
+        <f t="shared" si="24"/>
+        <v>0.26397869912514266</v>
       </c>
       <c r="X43" s="23">
         <f>X19/X13</f>
@@ -3141,36 +3229,40 @@
         <v>49</v>
       </c>
       <c r="I44" s="23">
-        <f t="shared" ref="I44:O44" si="20">I28/I13</f>
+        <f t="shared" ref="I44:O44" si="25">I28/I13</f>
         <v>-0.12654745529573591</v>
       </c>
       <c r="J44" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>-1.2218649517684888E-2</v>
       </c>
       <c r="K44" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1.5105740181268883E-2</v>
       </c>
       <c r="L44" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.27186009538950717</v>
       </c>
       <c r="M44" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.14068265682656828</v>
       </c>
       <c r="N44" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.14451612903225808</v>
       </c>
       <c r="O44" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.15740740740740741</v>
       </c>
       <c r="P44" s="23">
-        <f t="shared" ref="P44" si="21">P28/P13</f>
+        <f t="shared" ref="P44:Q44" si="26">P28/P13</f>
         <v>0.19967266775777415</v>
+      </c>
+      <c r="Q44" s="23">
+        <f t="shared" si="26"/>
+        <v>0.20882464815519208</v>
       </c>
       <c r="X44" s="23">
         <f>X28/X13</f>
@@ -3194,36 +3286,40 @@
         <v>50</v>
       </c>
       <c r="I45" s="23">
-        <f t="shared" ref="I45:O45" si="22">I27/I26</f>
+        <f t="shared" ref="I45:O45" si="27">I27/I26</f>
         <v>-0.25170068027210885</v>
       </c>
       <c r="J45" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-3.75</v>
       </c>
       <c r="K45" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.56896551724137934</v>
       </c>
       <c r="L45" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4.6468401486988845E-2</v>
       </c>
       <c r="M45" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3.4810126582278479E-2</v>
       </c>
       <c r="N45" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.04</v>
       </c>
       <c r="O45" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4.2253521126760563E-2</v>
       </c>
       <c r="P45" s="23">
-        <f t="shared" ref="P45" si="23">P27/P26</f>
+        <f t="shared" ref="P45:Q45" si="28">P27/P26</f>
         <v>8.130081300813009E-3</v>
+      </c>
+      <c r="Q45" s="23">
+        <f t="shared" si="28"/>
+        <v>0.10586319218241043</v>
       </c>
       <c r="X45" s="23">
         <f>X27/X26</f>
@@ -3242,58 +3338,86 @@
         <v>2.9081295439524125E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="24" t="s">
         <v>6</v>
       </c>
+      <c r="M50" s="24">
+        <v>891</v>
+      </c>
       <c r="O50" s="24">
         <v>814</v>
       </c>
       <c r="P50" s="24">
         <v>891</v>
       </c>
-    </row>
-    <row r="51" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q50" s="24">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
         <v>56</v>
       </c>
+      <c r="M51" s="13">
+        <v>959</v>
+      </c>
       <c r="O51" s="13">
         <v>622</v>
       </c>
       <c r="P51" s="13">
         <v>959</v>
       </c>
-    </row>
-    <row r="52" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q51" s="13">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13" t="s">
         <v>57</v>
       </c>
+      <c r="M52" s="13">
+        <v>1440</v>
+      </c>
       <c r="O52" s="13">
         <v>1472</v>
       </c>
       <c r="P52" s="13">
         <v>1440</v>
       </c>
-    </row>
-    <row r="53" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q52" s="13">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
         <v>58</v>
       </c>
+      <c r="M53" s="13">
+        <v>363</v>
+      </c>
       <c r="O53" s="13">
         <v>374</v>
       </c>
       <c r="P53" s="13">
         <v>363</v>
       </c>
-    </row>
-    <row r="54" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q53" s="13">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
         <v>59</v>
+      </c>
+      <c r="M54" s="13">
+        <f>SUM(M50:M53)</f>
+        <v>3653</v>
       </c>
       <c r="O54" s="13">
         <f>SUM(O50:O53)</f>
@@ -3303,54 +3427,86 @@
         <f>SUM(P50:P53)</f>
         <v>3653</v>
       </c>
-    </row>
-    <row r="55" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q54" s="13">
+        <f>SUM(Q50:Q53)</f>
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
         <v>60</v>
       </c>
+      <c r="M55" s="13">
+        <v>1657</v>
+      </c>
       <c r="O55" s="13">
         <v>1613</v>
       </c>
       <c r="P55" s="13">
         <v>1657</v>
       </c>
-    </row>
-    <row r="56" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q55" s="13">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13" t="s">
         <v>61</v>
       </c>
+      <c r="M56" s="13">
+        <v>1221</v>
+      </c>
       <c r="O56" s="13">
         <v>1219</v>
       </c>
       <c r="P56" s="13">
         <v>1221</v>
       </c>
-    </row>
-    <row r="57" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q56" s="13">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13" t="s">
         <v>62</v>
       </c>
+      <c r="M57" s="13">
+        <v>1066</v>
+      </c>
       <c r="O57" s="13">
         <v>1026</v>
       </c>
       <c r="P57" s="13">
         <v>1066</v>
       </c>
-    </row>
-    <row r="58" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q57" s="13">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13" t="s">
         <v>63</v>
       </c>
+      <c r="M58" s="13">
+        <v>426</v>
+      </c>
       <c r="O58" s="13">
         <v>424</v>
       </c>
       <c r="P58" s="13">
         <v>426</v>
       </c>
-    </row>
-    <row r="59" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q58" s="13">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13" t="s">
         <v>64</v>
+      </c>
+      <c r="M59" s="13">
+        <f>SUM(M54:M58)</f>
+        <v>8023</v>
       </c>
       <c r="O59" s="13">
         <f>SUM(O54:O58)</f>
@@ -3360,66 +3516,104 @@
         <f>SUM(P54:P58)</f>
         <v>8023</v>
       </c>
-    </row>
-    <row r="60" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q59" s="13">
+        <f>SUM(Q54:Q58)</f>
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="M61" s="13">
+        <v>1604</v>
+      </c>
       <c r="O61" s="13">
         <v>1467</v>
       </c>
       <c r="P61" s="13">
         <v>1604</v>
       </c>
-    </row>
-    <row r="62" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q61" s="13">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
         <v>66</v>
       </c>
+      <c r="M62" s="13">
+        <v>352</v>
+      </c>
       <c r="O62" s="13">
         <v>242</v>
       </c>
       <c r="P62" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="63" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q62" s="13">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
         <v>67</v>
       </c>
+      <c r="M63" s="13">
+        <v>60</v>
+      </c>
       <c r="O63" s="13">
         <v>61</v>
       </c>
       <c r="P63" s="13">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q63" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="24" t="s">
         <v>68</v>
       </c>
+      <c r="M64" s="24">
+        <v>0</v>
+      </c>
       <c r="O64" s="24">
         <v>0</v>
       </c>
       <c r="P64" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q64" s="24">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
         <v>69</v>
       </c>
+      <c r="M65" s="13">
+        <v>632</v>
+      </c>
       <c r="O65" s="13">
         <v>642</v>
       </c>
       <c r="P65" s="13">
         <v>632</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q65" s="13">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
         <v>70</v>
+      </c>
+      <c r="M66" s="13">
+        <f>SUM(M61:M65)</f>
+        <v>2648</v>
       </c>
       <c r="O66" s="13">
         <f>SUM(O61:O65)</f>
@@ -3429,43 +3623,69 @@
         <f>SUM(P61:P65)</f>
         <v>2648</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q66" s="13">
+        <f>SUM(Q61:Q65)</f>
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="24" t="s">
         <v>71</v>
       </c>
+      <c r="M67" s="24">
+        <v>77</v>
+      </c>
       <c r="O67" s="24">
         <v>73</v>
       </c>
       <c r="P67" s="24">
         <v>77</v>
       </c>
-    </row>
-    <row r="68" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q67" s="24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
         <v>72</v>
       </c>
+      <c r="M68" s="13">
+        <v>756</v>
+      </c>
       <c r="O68" s="13">
         <v>762</v>
       </c>
       <c r="P68" s="13">
         <v>756</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q68" s="13">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="24" t="s">
         <v>73</v>
       </c>
+      <c r="M69" s="24">
+        <v>4995</v>
+      </c>
       <c r="O69" s="24">
         <v>5146</v>
       </c>
       <c r="P69" s="24">
         <v>4995</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q69" s="24">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="13" t="s">
         <v>74</v>
+      </c>
+      <c r="M70" s="13">
+        <f>SUM(M66:M69)</f>
+        <v>8476</v>
       </c>
       <c r="O70" s="13">
         <f>SUM(O66:O69)</f>
@@ -3475,22 +3695,36 @@
         <f>SUM(P66:P69)</f>
         <v>8476</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q70" s="13">
+        <f>SUM(Q66:Q69)</f>
+        <v>8505</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="13" t="s">
         <v>75</v>
       </c>
+      <c r="M72" s="13">
+        <v>-453</v>
+      </c>
       <c r="O72" s="13">
         <v>-829</v>
       </c>
       <c r="P72" s="13">
         <v>-453</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q72" s="13">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
         <v>76</v>
+      </c>
+      <c r="M73" s="13">
+        <f>M72+M70</f>
+        <v>8023</v>
       </c>
       <c r="O73" s="13">
         <f>O72+O70</f>
@@ -3500,10 +3734,18 @@
         <f>P72+P70</f>
         <v>8023</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="13">
+        <f>Q72+Q70</f>
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="M75" s="13">
+        <f>M59-M70</f>
+        <v>-453</v>
       </c>
       <c r="O75" s="13">
         <f>O59-O70</f>
@@ -3513,23 +3755,39 @@
         <f>P59-P70</f>
         <v>-453</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+      <c r="Q75" s="13">
+        <f t="shared" ref="Q75" si="29">Q59-Q70</f>
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O76" s="1">
+      <c r="M76" s="22">
+        <f>M75/M30</f>
+        <v>-2.1469194312796209</v>
+      </c>
+      <c r="O76" s="22">
         <f>O75/O30</f>
         <v>-3.9103773584905661</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76" s="22">
         <f>P75/P30</f>
         <v>-2.1367924528301887</v>
       </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="22">
+        <f>Q75/Q30</f>
+        <v>-0.27876106194690264</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="M78" s="13">
+        <f>M50</f>
+        <v>891</v>
       </c>
       <c r="O78" s="13">
         <f>O50</f>
@@ -3539,10 +3797,18 @@
         <f>P50</f>
         <v>891</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q78" s="13">
+        <f t="shared" ref="Q78" si="30">Q50</f>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="M79" s="13">
+        <f>M64+M67+M69</f>
+        <v>5072</v>
       </c>
       <c r="O79" s="13">
         <f>O64+O67+O69</f>
@@ -3552,10 +3818,18 @@
         <f>P64+P67+P69</f>
         <v>5072</v>
       </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q79" s="13">
+        <f t="shared" ref="Q79" si="31">Q64+Q67+Q69</f>
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="M80" s="13">
+        <f>M78-M79</f>
+        <v>-4181</v>
       </c>
       <c r="O80" s="13">
         <f>O78-O79</f>
@@ -3565,6 +3839,10 @@
         <f>P78-P79</f>
         <v>-4181</v>
       </c>
+      <c r="Q80" s="13">
+        <f t="shared" ref="Q80" si="32">Q78-Q79</f>
+        <v>-3965</v>
+      </c>
     </row>
     <row r="84" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B84" s="28" t="s">
@@ -3584,7 +3862,7 @@
       <c r="N85" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="O85" s="52">
+      <c r="O85" s="38">
         <v>575</v>
       </c>
       <c r="P85" s="13" t="s">
@@ -3610,7 +3888,7 @@
       <c r="K86" s="13">
         <v>200</v>
       </c>
-      <c r="O86" s="52">
+      <c r="O86" s="38">
         <v>182</v>
       </c>
       <c r="X86" s="13">
@@ -3634,24 +3912,24 @@
         <f>+K85-K86</f>
         <v>284</v>
       </c>
-      <c r="O87" s="52">
+      <c r="O87" s="38">
         <f>+O85-O86</f>
         <v>393</v>
       </c>
       <c r="X87" s="13">
-        <f t="shared" ref="X87:AA87" si="24">+X85-X86</f>
+        <f t="shared" ref="X87:AA87" si="33">+X85-X86</f>
         <v>1276</v>
       </c>
       <c r="Y87" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>626</v>
       </c>
       <c r="Z87" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>664</v>
       </c>
       <c r="AA87" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>818</v>
       </c>
     </row>
@@ -3676,23 +3954,23 @@
         <v>818</v>
       </c>
     </row>
-    <row r="90" spans="2:27" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="47" t="s">
+    <row r="90" spans="2:27" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="X90" s="47">
+      <c r="X90" s="37">
         <f>X89/X30</f>
         <v>5.8</v>
       </c>
-      <c r="Y90" s="47">
+      <c r="Y90" s="37">
         <f>Y89/Y30</f>
         <v>3.0241545893719808</v>
       </c>
-      <c r="Z90" s="47">
+      <c r="Z90" s="37">
         <f>Z89/Z30</f>
         <v>3.1770334928229667</v>
       </c>
-      <c r="AA90" s="47">
+      <c r="AA90" s="37">
         <f>AA89/AA30</f>
         <v>3.858490566037736</v>
       </c>
@@ -3710,13 +3988,14 @@
     <hyperlink ref="L1" r:id="rId3" xr:uid="{5E90ACED-FF91-4211-8BDA-8A4C9AA29D20}"/>
     <hyperlink ref="Z1" r:id="rId4" xr:uid="{AE1C6B43-A977-4DC5-B5D3-AFAAB5F8AA44}"/>
     <hyperlink ref="P1" r:id="rId5" xr:uid="{D0C977D0-9973-4C79-BA72-424EC9451109}"/>
+    <hyperlink ref="Q1" r:id="rId6" xr:uid="{580B1210-F781-4DF0-AE61-C53660BEE6B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <ignoredErrors>
     <ignoredError sqref="M8:O8 I8:K8 X8:Z8" formulaRange="1"/>
     <ignoredError sqref="L15:L30 AA15:AA28" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>